--- a/Time_10000.xlsx
+++ b/Time_10000.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>5913.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -517,1102 +519,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.41988E7</v>
+        <v>1.72633E7</v>
       </c>
       <c r="B2" t="n">
-        <v>4965000.0</v>
+        <v>1230900.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3207300.0</v>
+        <v>4109900.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.24811E7</v>
+        <v>1.82815E7</v>
       </c>
       <c r="B3" t="n">
-        <v>4136901.0</v>
+        <v>5866800.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1260400.0</v>
+        <v>2404800.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.1666301E7</v>
+        <v>7389800.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4927800.0</v>
+        <v>2219700.0</v>
       </c>
       <c r="C4" t="n">
-        <v>764801.0</v>
+        <v>1853800.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0116499E7</v>
+        <v>5282700.0</v>
       </c>
       <c r="B5" t="n">
-        <v>330901.0</v>
+        <v>347100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>671201.0</v>
+        <v>427700.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9518000.0</v>
+        <v>5421800.0</v>
       </c>
       <c r="B6" t="n">
-        <v>327500.0</v>
+        <v>645200.0</v>
       </c>
       <c r="C6" t="n">
-        <v>919099.0</v>
+        <v>704700.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9832800.0</v>
+        <v>7884300.0</v>
       </c>
       <c r="B7" t="n">
-        <v>748900.0</v>
+        <v>493700.0</v>
       </c>
       <c r="C7" t="n">
-        <v>560700.0</v>
+        <v>1002000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8158800.0</v>
+        <v>7813100.0</v>
       </c>
       <c r="B8" t="n">
-        <v>361500.0</v>
+        <v>227200.0</v>
       </c>
       <c r="C8" t="n">
-        <v>380600.0</v>
+        <v>309300.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4830200.0</v>
+        <v>6657500.0</v>
       </c>
       <c r="B9" t="n">
-        <v>263799.0</v>
+        <v>353000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>218701.0</v>
+        <v>369700.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4938399.0</v>
+        <v>6059600.0</v>
       </c>
       <c r="B10" t="n">
-        <v>751500.0</v>
+        <v>259000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>289900.0</v>
+        <v>304900.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6313399.0</v>
+        <v>8575500.0</v>
       </c>
       <c r="B11" t="n">
-        <v>666100.0</v>
+        <v>836200.0</v>
       </c>
       <c r="C11" t="n">
-        <v>281200.0</v>
+        <v>446300.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9638201.0</v>
+        <v>7448500.0</v>
       </c>
       <c r="B12" t="n">
-        <v>440900.0</v>
+        <v>929700.0</v>
       </c>
       <c r="C12" t="n">
-        <v>668100.0</v>
+        <v>405100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9133900.0</v>
+        <v>6142700.0</v>
       </c>
       <c r="B13" t="n">
-        <v>552800.0</v>
+        <v>1155600.0</v>
       </c>
       <c r="C13" t="n">
-        <v>552799.0</v>
+        <v>501200.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.03581E7</v>
+        <v>4032600.0</v>
       </c>
       <c r="B14" t="n">
-        <v>546599.0</v>
+        <v>1523600.0</v>
       </c>
       <c r="C14" t="n">
-        <v>291999.0</v>
+        <v>479000.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.11692E7</v>
+        <v>5429400.0</v>
       </c>
       <c r="B15" t="n">
-        <v>746200.0</v>
+        <v>965000.0</v>
       </c>
       <c r="C15" t="n">
-        <v>404800.0</v>
+        <v>283900.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8983900.0</v>
+        <v>4339500.0</v>
       </c>
       <c r="B16" t="n">
-        <v>318999.0</v>
+        <v>1130300.0</v>
       </c>
       <c r="C16" t="n">
-        <v>197800.0</v>
+        <v>373500.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9037601.0</v>
+        <v>5417300.0</v>
       </c>
       <c r="B17" t="n">
-        <v>689101.0</v>
+        <v>1459600.0</v>
       </c>
       <c r="C17" t="n">
-        <v>320600.0</v>
+        <v>254200.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6300200.0</v>
+        <v>4959100.0</v>
       </c>
       <c r="B18" t="n">
-        <v>611101.0</v>
+        <v>985800.0</v>
       </c>
       <c r="C18" t="n">
-        <v>258100.0</v>
+        <v>303700.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7206700.0</v>
+        <v>4504900.0</v>
       </c>
       <c r="B19" t="n">
-        <v>382899.0</v>
+        <v>2116500.0</v>
       </c>
       <c r="C19" t="n">
-        <v>282800.0</v>
+        <v>311300.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7453500.0</v>
+        <v>3302500.0</v>
       </c>
       <c r="B20" t="n">
-        <v>428000.0</v>
+        <v>1544400.0</v>
       </c>
       <c r="C20" t="n">
-        <v>175101.0</v>
+        <v>276100.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4142401.0</v>
+        <v>3043000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>616399.0</v>
+        <v>1878800.0</v>
       </c>
       <c r="C21" t="n">
-        <v>173300.0</v>
+        <v>401700.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4363100.0</v>
+        <v>5022600.0</v>
       </c>
       <c r="B22" t="n">
-        <v>470400.0</v>
+        <v>1755900.0</v>
       </c>
       <c r="C22" t="n">
-        <v>266899.0</v>
+        <v>425300.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6184200.0</v>
+        <v>4382800.0</v>
       </c>
       <c r="B23" t="n">
-        <v>355500.0</v>
+        <v>1561600.0</v>
       </c>
       <c r="C23" t="n">
-        <v>262499.0</v>
+        <v>298100.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4827700.0</v>
+        <v>4893800.0</v>
       </c>
       <c r="B24" t="n">
-        <v>376499.0</v>
+        <v>1750400.0</v>
       </c>
       <c r="C24" t="n">
-        <v>192699.0</v>
+        <v>451800.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4595299.0</v>
+        <v>4763800.0</v>
       </c>
       <c r="B25" t="n">
-        <v>263900.0</v>
+        <v>1922900.0</v>
       </c>
       <c r="C25" t="n">
-        <v>185900.0</v>
+        <v>377100.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5178700.0</v>
+        <v>4953700.0</v>
       </c>
       <c r="B26" t="n">
-        <v>275400.0</v>
+        <v>1240400.0</v>
       </c>
       <c r="C26" t="n">
-        <v>280700.0</v>
+        <v>241200.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6956200.0</v>
+        <v>3271600.0</v>
       </c>
       <c r="B27" t="n">
-        <v>504399.0</v>
+        <v>1077700.0</v>
       </c>
       <c r="C27" t="n">
-        <v>281400.0</v>
+        <v>277900.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7617300.0</v>
+        <v>5445100.0</v>
       </c>
       <c r="B28" t="n">
-        <v>444800.0</v>
+        <v>2080600.0</v>
       </c>
       <c r="C28" t="n">
-        <v>279300.0</v>
+        <v>306500.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4995501.0</v>
+        <v>5377500.0</v>
       </c>
       <c r="B29" t="n">
-        <v>316400.0</v>
+        <v>1823200.0</v>
       </c>
       <c r="C29" t="n">
-        <v>156800.0</v>
+        <v>443100.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4007901.0</v>
+        <v>4948500.0</v>
       </c>
       <c r="B30" t="n">
-        <v>293900.0</v>
+        <v>1734300.0</v>
       </c>
       <c r="C30" t="n">
-        <v>205501.0</v>
+        <v>512100.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8276601.0</v>
+        <v>5106500.0</v>
       </c>
       <c r="B31" t="n">
-        <v>467000.0</v>
+        <v>1848900.0</v>
       </c>
       <c r="C31" t="n">
-        <v>318400.0</v>
+        <v>377500.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5294000.0</v>
+        <v>5318500.0</v>
       </c>
       <c r="B32" t="n">
-        <v>198800.0</v>
+        <v>2040100.0</v>
       </c>
       <c r="C32" t="n">
-        <v>214000.0</v>
+        <v>394700.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3987700.0</v>
+        <v>5323600.0</v>
       </c>
       <c r="B33" t="n">
-        <v>307200.0</v>
+        <v>1800600.0</v>
       </c>
       <c r="C33" t="n">
-        <v>193400.0</v>
+        <v>360300.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4374500.0</v>
+        <v>4846500.0</v>
       </c>
       <c r="B34" t="n">
-        <v>340200.0</v>
+        <v>2034300.0</v>
       </c>
       <c r="C34" t="n">
-        <v>176899.0</v>
+        <v>372800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4029000.0</v>
+        <v>5331800.0</v>
       </c>
       <c r="B35" t="n">
-        <v>360599.0</v>
+        <v>1879800.0</v>
       </c>
       <c r="C35" t="n">
-        <v>285400.0</v>
+        <v>346100.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4049900.0</v>
+        <v>3568000.0</v>
       </c>
       <c r="B36" t="n">
-        <v>314501.0</v>
+        <v>1079500.0</v>
       </c>
       <c r="C36" t="n">
-        <v>200499.0</v>
+        <v>664000.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5536300.0</v>
+        <v>5374700.0</v>
       </c>
       <c r="B37" t="n">
-        <v>189999.0</v>
+        <v>2138800.0</v>
       </c>
       <c r="C37" t="n">
-        <v>184600.0</v>
+        <v>413400.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3999300.0</v>
+        <v>5298400.0</v>
       </c>
       <c r="B38" t="n">
-        <v>262300.0</v>
+        <v>1339300.0</v>
       </c>
       <c r="C38" t="n">
-        <v>199001.0</v>
+        <v>354000.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4036000.0</v>
+        <v>5981100.0</v>
       </c>
       <c r="B39" t="n">
-        <v>257899.0</v>
+        <v>1838400.0</v>
       </c>
       <c r="C39" t="n">
-        <v>193300.0</v>
+        <v>591300.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4357700.0</v>
+        <v>5142500.0</v>
       </c>
       <c r="B40" t="n">
-        <v>185900.0</v>
+        <v>1890400.0</v>
       </c>
       <c r="C40" t="n">
-        <v>236300.0</v>
+        <v>409900.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3993600.0</v>
+        <v>6082100.0</v>
       </c>
       <c r="B41" t="n">
-        <v>373700.0</v>
+        <v>1062500.0</v>
       </c>
       <c r="C41" t="n">
-        <v>183100.0</v>
+        <v>316300.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3954500.0</v>
+        <v>3459500.0</v>
       </c>
       <c r="B42" t="n">
-        <v>294000.0</v>
+        <v>1832900.0</v>
       </c>
       <c r="C42" t="n">
-        <v>254400.0</v>
+        <v>323800.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4302701.0</v>
+        <v>3444400.0</v>
       </c>
       <c r="B43" t="n">
-        <v>369101.0</v>
+        <v>1341500.0</v>
       </c>
       <c r="C43" t="n">
-        <v>277301.0</v>
+        <v>318800.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4040500.0</v>
+        <v>3619400.0</v>
       </c>
       <c r="B44" t="n">
-        <v>326500.0</v>
+        <v>1478200.0</v>
       </c>
       <c r="C44" t="n">
-        <v>199200.0</v>
+        <v>372900.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4186800.0</v>
+        <v>4466600.0</v>
       </c>
       <c r="B45" t="n">
-        <v>330200.0</v>
+        <v>1170700.0</v>
       </c>
       <c r="C45" t="n">
-        <v>183900.0</v>
+        <v>234700.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6444300.0</v>
+        <v>3449900.0</v>
       </c>
       <c r="B46" t="n">
-        <v>550500.0</v>
+        <v>925300.0</v>
       </c>
       <c r="C46" t="n">
-        <v>292001.0</v>
+        <v>294000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5581201.0</v>
+        <v>4621600.0</v>
       </c>
       <c r="B47" t="n">
-        <v>259000.0</v>
+        <v>2626100.0</v>
       </c>
       <c r="C47" t="n">
-        <v>242401.0</v>
+        <v>422600.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4477600.0</v>
+        <v>4228600.0</v>
       </c>
       <c r="B48" t="n">
-        <v>304201.0</v>
+        <v>2052100.0</v>
       </c>
       <c r="C48" t="n">
-        <v>318400.0</v>
+        <v>296200.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4590600.0</v>
+        <v>4066300.0</v>
       </c>
       <c r="B49" t="n">
-        <v>281500.0</v>
+        <v>2002200.0</v>
       </c>
       <c r="C49" t="n">
-        <v>398000.0</v>
+        <v>400500.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6719799.0</v>
+        <v>3329100.0</v>
       </c>
       <c r="B50" t="n">
-        <v>607700.0</v>
+        <v>1614900.0</v>
       </c>
       <c r="C50" t="n">
-        <v>347600.0</v>
+        <v>395500.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7212400.0</v>
+        <v>6268500.0</v>
       </c>
       <c r="B51" t="n">
-        <v>483301.0</v>
+        <v>1589600.0</v>
       </c>
       <c r="C51" t="n">
-        <v>289299.0</v>
+        <v>334500.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7869500.0</v>
+        <v>3239500.0</v>
       </c>
       <c r="B52" t="n">
-        <v>489999.0</v>
+        <v>1820500.0</v>
       </c>
       <c r="C52" t="n">
-        <v>255100.0</v>
+        <v>314600.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6874499.0</v>
+        <v>3252300.0</v>
       </c>
       <c r="B53" t="n">
-        <v>588701.0</v>
+        <v>1806000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>254099.0</v>
+        <v>326100.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6772201.0</v>
+        <v>2981000.0</v>
       </c>
       <c r="B54" t="n">
-        <v>572201.0</v>
+        <v>1529300.0</v>
       </c>
       <c r="C54" t="n">
-        <v>248999.0</v>
+        <v>270100.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7645800.0</v>
+        <v>3886200.0</v>
       </c>
       <c r="B55" t="n">
-        <v>608799.0</v>
+        <v>1693200.0</v>
       </c>
       <c r="C55" t="n">
-        <v>367200.0</v>
+        <v>265400.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7459800.0</v>
+        <v>3985400.0</v>
       </c>
       <c r="B56" t="n">
-        <v>629900.0</v>
+        <v>1736100.0</v>
       </c>
       <c r="C56" t="n">
-        <v>290500.0</v>
+        <v>391900.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7630500.0</v>
+        <v>3300500.0</v>
       </c>
       <c r="B57" t="n">
-        <v>681399.0</v>
+        <v>2773300.0</v>
       </c>
       <c r="C57" t="n">
-        <v>380200.0</v>
+        <v>619000.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6437600.0</v>
+        <v>3884100.0</v>
       </c>
       <c r="B58" t="n">
-        <v>372099.0</v>
+        <v>1725200.0</v>
       </c>
       <c r="C58" t="n">
-        <v>192301.0</v>
+        <v>315100.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4552100.0</v>
+        <v>3673400.0</v>
       </c>
       <c r="B59" t="n">
-        <v>347000.0</v>
+        <v>1778700.0</v>
       </c>
       <c r="C59" t="n">
-        <v>181701.0</v>
+        <v>270700.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4291100.0</v>
+        <v>4958900.0</v>
       </c>
       <c r="B60" t="n">
-        <v>330000.0</v>
+        <v>2909500.0</v>
       </c>
       <c r="C60" t="n">
-        <v>182199.0</v>
+        <v>468300.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5059299.0</v>
+        <v>5439700.0</v>
       </c>
       <c r="B61" t="n">
-        <v>331001.0</v>
+        <v>2878200.0</v>
       </c>
       <c r="C61" t="n">
-        <v>356800.0</v>
+        <v>333200.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6427600.0</v>
+        <v>7125800.0</v>
       </c>
       <c r="B62" t="n">
-        <v>362001.0</v>
+        <v>2410500.0</v>
       </c>
       <c r="C62" t="n">
-        <v>257500.0</v>
+        <v>409000.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6077499.0</v>
+        <v>3363500.0</v>
       </c>
       <c r="B63" t="n">
-        <v>372800.0</v>
+        <v>1517600.0</v>
       </c>
       <c r="C63" t="n">
-        <v>184500.0</v>
+        <v>346500.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4752800.0</v>
+        <v>3051900.0</v>
       </c>
       <c r="B64" t="n">
-        <v>179700.0</v>
+        <v>1574200.0</v>
       </c>
       <c r="C64" t="n">
-        <v>194999.0</v>
+        <v>497900.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7302401.0</v>
+        <v>4070800.0</v>
       </c>
       <c r="B65" t="n">
-        <v>269800.0</v>
+        <v>1654300.0</v>
       </c>
       <c r="C65" t="n">
-        <v>287200.0</v>
+        <v>279000.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6293200.0</v>
+        <v>3059100.0</v>
       </c>
       <c r="B66" t="n">
-        <v>276700.0</v>
+        <v>2236300.0</v>
       </c>
       <c r="C66" t="n">
-        <v>254801.0</v>
+        <v>446200.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4558799.0</v>
+        <v>3337300.0</v>
       </c>
       <c r="B67" t="n">
-        <v>295899.0</v>
+        <v>1991600.0</v>
       </c>
       <c r="C67" t="n">
-        <v>312300.0</v>
+        <v>457900.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4497800.0</v>
+        <v>3422900.0</v>
       </c>
       <c r="B68" t="n">
-        <v>448600.0</v>
+        <v>1448900.0</v>
       </c>
       <c r="C68" t="n">
-        <v>183500.0</v>
+        <v>242900.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4323599.0</v>
+        <v>3250800.0</v>
       </c>
       <c r="B69" t="n">
-        <v>225700.0</v>
+        <v>1666800.0</v>
       </c>
       <c r="C69" t="n">
-        <v>320801.0</v>
+        <v>392600.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4560100.0</v>
+        <v>4697500.0</v>
       </c>
       <c r="B70" t="n">
-        <v>714799.0</v>
+        <v>3119600.0</v>
       </c>
       <c r="C70" t="n">
-        <v>178500.0</v>
+        <v>408300.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4154101.0</v>
+        <v>6068800.0</v>
       </c>
       <c r="B71" t="n">
-        <v>179401.0</v>
+        <v>3031900.0</v>
       </c>
       <c r="C71" t="n">
-        <v>217199.0</v>
+        <v>449900.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4133400.0</v>
+        <v>4058400.0</v>
       </c>
       <c r="B72" t="n">
-        <v>199901.0</v>
+        <v>1862600.0</v>
       </c>
       <c r="C72" t="n">
-        <v>195700.0</v>
+        <v>368700.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5705900.0</v>
+        <v>4315400.0</v>
       </c>
       <c r="B73" t="n">
-        <v>465701.0</v>
+        <v>1835800.0</v>
       </c>
       <c r="C73" t="n">
-        <v>259800.0</v>
+        <v>490000.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7220401.0</v>
+        <v>3857900.0</v>
       </c>
       <c r="B74" t="n">
-        <v>426800.0</v>
+        <v>2409200.0</v>
       </c>
       <c r="C74" t="n">
-        <v>464199.0</v>
+        <v>546500.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5708300.0</v>
+        <v>6143400.0</v>
       </c>
       <c r="B75" t="n">
-        <v>199801.0</v>
+        <v>2545000.0</v>
       </c>
       <c r="C75" t="n">
-        <v>364500.0</v>
+        <v>464100.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5051700.0</v>
+        <v>3194500.0</v>
       </c>
       <c r="B76" t="n">
-        <v>362900.0</v>
+        <v>1744400.0</v>
       </c>
       <c r="C76" t="n">
-        <v>203600.0</v>
+        <v>262700.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4484201.0</v>
+        <v>2901700.0</v>
       </c>
       <c r="B77" t="n">
-        <v>258900.0</v>
+        <v>1613400.0</v>
       </c>
       <c r="C77" t="n">
-        <v>248799.0</v>
+        <v>254700.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4610000.0</v>
+        <v>3557900.0</v>
       </c>
       <c r="B78" t="n">
-        <v>333200.0</v>
+        <v>1437400.0</v>
       </c>
       <c r="C78" t="n">
-        <v>251899.0</v>
+        <v>351400.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4514800.0</v>
+        <v>3992000.0</v>
       </c>
       <c r="B79" t="n">
-        <v>311500.0</v>
+        <v>1510200.0</v>
       </c>
       <c r="C79" t="n">
-        <v>248700.0</v>
+        <v>319700.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4518500.0</v>
+        <v>3139500.0</v>
       </c>
       <c r="B80" t="n">
-        <v>334000.0</v>
+        <v>1499900.0</v>
       </c>
       <c r="C80" t="n">
-        <v>225900.0</v>
+        <v>497200.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6087701.0</v>
+        <v>5499700.0</v>
       </c>
       <c r="B81" t="n">
-        <v>535600.0</v>
+        <v>2561100.0</v>
       </c>
       <c r="C81" t="n">
-        <v>288500.0</v>
+        <v>490600.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6586300.0</v>
+        <v>5468700.0</v>
       </c>
       <c r="B82" t="n">
-        <v>653701.0</v>
+        <v>2372000.0</v>
       </c>
       <c r="C82" t="n">
-        <v>343300.0</v>
+        <v>416000.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7210700.0</v>
+        <v>5268300.0</v>
       </c>
       <c r="B83" t="n">
-        <v>333500.0</v>
+        <v>2495000.0</v>
       </c>
       <c r="C83" t="n">
-        <v>196700.0</v>
+        <v>542500.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4846700.0</v>
+        <v>3902500.0</v>
       </c>
       <c r="B84" t="n">
-        <v>362100.0</v>
+        <v>2352000.0</v>
       </c>
       <c r="C84" t="n">
-        <v>197100.0</v>
+        <v>413700.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4612999.0</v>
+        <v>3796800.0</v>
       </c>
       <c r="B85" t="n">
-        <v>281699.0</v>
+        <v>1655700.0</v>
       </c>
       <c r="C85" t="n">
-        <v>267899.0</v>
+        <v>286300.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4234600.0</v>
+        <v>2902100.0</v>
       </c>
       <c r="B86" t="n">
-        <v>287801.0</v>
+        <v>2569600.0</v>
       </c>
       <c r="C86" t="n">
-        <v>206000.0</v>
+        <v>365700.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7536900.0</v>
+        <v>2971000.0</v>
       </c>
       <c r="B87" t="n">
-        <v>536100.0</v>
+        <v>1380200.0</v>
       </c>
       <c r="C87" t="n">
-        <v>240400.0</v>
+        <v>340100.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6267000.0</v>
+        <v>3081800.0</v>
       </c>
       <c r="B88" t="n">
-        <v>412100.0</v>
+        <v>1744800.0</v>
       </c>
       <c r="C88" t="n">
-        <v>217200.0</v>
+        <v>262000.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.21119E7</v>
+        <v>3803000.0</v>
       </c>
       <c r="B89" t="n">
-        <v>677500.0</v>
+        <v>1780300.0</v>
       </c>
       <c r="C89" t="n">
-        <v>282100.0</v>
+        <v>325900.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.12373E7</v>
+        <v>3238600.0</v>
       </c>
       <c r="B90" t="n">
-        <v>457700.0</v>
+        <v>1551400.0</v>
       </c>
       <c r="C90" t="n">
-        <v>247200.0</v>
+        <v>440400.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8817500.0</v>
+        <v>6040300.0</v>
       </c>
       <c r="B91" t="n">
-        <v>1657400.0</v>
+        <v>2790800.0</v>
       </c>
       <c r="C91" t="n">
-        <v>173301.0</v>
+        <v>501500.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6351000.0</v>
+        <v>5359900.0</v>
       </c>
       <c r="B92" t="n">
-        <v>331100.0</v>
+        <v>2840400.0</v>
       </c>
       <c r="C92" t="n">
-        <v>178200.0</v>
+        <v>442900.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8106200.0</v>
+        <v>2918000.0</v>
       </c>
       <c r="B93" t="n">
-        <v>519399.0</v>
+        <v>1711500.0</v>
       </c>
       <c r="C93" t="n">
-        <v>432100.0</v>
+        <v>264700.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8134600.0</v>
+        <v>3877700.0</v>
       </c>
       <c r="B94" t="n">
-        <v>272601.0</v>
+        <v>1794200.0</v>
       </c>
       <c r="C94" t="n">
-        <v>216400.0</v>
+        <v>448100.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4151601.0</v>
+        <v>5009900.0</v>
       </c>
       <c r="B95" t="n">
-        <v>308800.0</v>
+        <v>1596800.0</v>
       </c>
       <c r="C95" t="n">
-        <v>198900.0</v>
+        <v>380500.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4835600.0</v>
+        <v>4061900.0</v>
       </c>
       <c r="B96" t="n">
-        <v>276400.0</v>
+        <v>1690000.0</v>
       </c>
       <c r="C96" t="n">
-        <v>228800.0</v>
+        <v>347600.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4385799.0</v>
+        <v>3527500.0</v>
       </c>
       <c r="B97" t="n">
-        <v>331500.0</v>
+        <v>1579800.0</v>
       </c>
       <c r="C97" t="n">
-        <v>174700.0</v>
+        <v>335200.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4170200.0</v>
+        <v>4211900.0</v>
       </c>
       <c r="B98" t="n">
-        <v>231101.0</v>
+        <v>1653100.0</v>
       </c>
       <c r="C98" t="n">
-        <v>238600.0</v>
+        <v>287000.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4777001.0</v>
+        <v>3438500.0</v>
       </c>
       <c r="B99" t="n">
-        <v>450300.0</v>
+        <v>1848900.0</v>
       </c>
       <c r="C99" t="n">
-        <v>320701.0</v>
+        <v>312000.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5397299.0</v>
+        <v>3456000.0</v>
       </c>
       <c r="B100" t="n">
-        <v>371600.0</v>
+        <v>1812100.0</v>
       </c>
       <c r="C100" t="n">
-        <v>180200.0</v>
+        <v>374600.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4146401.0</v>
+        <v>3636100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>309400.0</v>
+        <v>1765800.0</v>
       </c>
       <c r="C101" t="n">
-        <v>181199.0</v>
+        <v>262900.0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,7 +1645,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1660,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>442.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,1102 +1683,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2042900.0</v>
+        <v>149500.0</v>
       </c>
       <c r="B2" t="n">
-        <v>731801.0</v>
+        <v>2583000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>550199.0</v>
+        <v>529200.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1756200.0</v>
+        <v>225600.0</v>
       </c>
       <c r="B3" t="n">
-        <v>286200.0</v>
+        <v>1367600.0</v>
       </c>
       <c r="C3" t="n">
-        <v>401400.0</v>
+        <v>540800.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1657300.0</v>
+        <v>357500.0</v>
       </c>
       <c r="B4" t="n">
-        <v>317200.0</v>
+        <v>2204200.0</v>
       </c>
       <c r="C4" t="n">
-        <v>375401.0</v>
+        <v>553300.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1682100.0</v>
+        <v>145500.0</v>
       </c>
       <c r="B5" t="n">
-        <v>291000.0</v>
+        <v>1329300.0</v>
       </c>
       <c r="C5" t="n">
-        <v>390400.0</v>
+        <v>399100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2661100.0</v>
+        <v>135100.0</v>
       </c>
       <c r="B6" t="n">
-        <v>310300.0</v>
+        <v>1580200.0</v>
       </c>
       <c r="C6" t="n">
-        <v>638000.0</v>
+        <v>362300.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3165399.0</v>
+        <v>149700.0</v>
       </c>
       <c r="B7" t="n">
-        <v>492000.0</v>
+        <v>1617300.0</v>
       </c>
       <c r="C7" t="n">
-        <v>440500.0</v>
+        <v>331500.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2666100.0</v>
+        <v>140100.0</v>
       </c>
       <c r="B8" t="n">
-        <v>512600.0</v>
+        <v>2315200.0</v>
       </c>
       <c r="C8" t="n">
-        <v>519700.0</v>
+        <v>328000.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2588699.0</v>
+        <v>187500.0</v>
       </c>
       <c r="B9" t="n">
-        <v>702500.0</v>
+        <v>2063100.0</v>
       </c>
       <c r="C9" t="n">
-        <v>529000.0</v>
+        <v>384300.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3048600.0</v>
+        <v>178400.0</v>
       </c>
       <c r="B10" t="n">
-        <v>543600.0</v>
+        <v>2028500.0</v>
       </c>
       <c r="C10" t="n">
-        <v>567000.0</v>
+        <v>406900.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2592199.0</v>
+        <v>152200.0</v>
       </c>
       <c r="B11" t="n">
-        <v>670600.0</v>
+        <v>2361600.0</v>
       </c>
       <c r="C11" t="n">
-        <v>352000.0</v>
+        <v>344100.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1984900.0</v>
+        <v>241100.0</v>
       </c>
       <c r="B12" t="n">
-        <v>391100.0</v>
+        <v>3452100.0</v>
       </c>
       <c r="C12" t="n">
-        <v>497400.0</v>
+        <v>595700.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1612601.0</v>
+        <v>360100.0</v>
       </c>
       <c r="B13" t="n">
-        <v>424499.0</v>
+        <v>2685900.0</v>
       </c>
       <c r="C13" t="n">
-        <v>313700.0</v>
+        <v>471700.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2754300.0</v>
+        <v>141200.0</v>
       </c>
       <c r="B14" t="n">
-        <v>570001.0</v>
+        <v>2004400.0</v>
       </c>
       <c r="C14" t="n">
-        <v>393800.0</v>
+        <v>389700.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1792401.0</v>
+        <v>145000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>460599.0</v>
+        <v>2030000.0</v>
       </c>
       <c r="C15" t="n">
-        <v>495700.0</v>
+        <v>384200.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2751601.0</v>
+        <v>135100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>651901.0</v>
+        <v>2074100.0</v>
       </c>
       <c r="C16" t="n">
-        <v>518500.0</v>
+        <v>339400.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2806501.0</v>
+        <v>149700.0</v>
       </c>
       <c r="B17" t="n">
-        <v>730700.0</v>
+        <v>1885000.0</v>
       </c>
       <c r="C17" t="n">
-        <v>530200.0</v>
+        <v>323500.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2596899.0</v>
+        <v>288200.0</v>
       </c>
       <c r="B18" t="n">
-        <v>430799.0</v>
+        <v>3423300.0</v>
       </c>
       <c r="C18" t="n">
-        <v>303201.0</v>
+        <v>552400.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1625700.0</v>
+        <v>479800.0</v>
       </c>
       <c r="B19" t="n">
-        <v>399300.0</v>
+        <v>2695700.0</v>
       </c>
       <c r="C19" t="n">
-        <v>416600.0</v>
+        <v>332400.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1656500.0</v>
+        <v>144600.0</v>
       </c>
       <c r="B20" t="n">
-        <v>347900.0</v>
+        <v>1870200.0</v>
       </c>
       <c r="C20" t="n">
-        <v>364300.0</v>
+        <v>336800.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1519599.0</v>
+        <v>149700.0</v>
       </c>
       <c r="B21" t="n">
-        <v>378900.0</v>
+        <v>2370200.0</v>
       </c>
       <c r="C21" t="n">
-        <v>520000.0</v>
+        <v>479600.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2555900.0</v>
+        <v>152600.0</v>
       </c>
       <c r="B22" t="n">
-        <v>333900.0</v>
+        <v>2409100.0</v>
       </c>
       <c r="C22" t="n">
-        <v>386199.0</v>
+        <v>508100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1685801.0</v>
+        <v>142600.0</v>
       </c>
       <c r="B23" t="n">
-        <v>440699.0</v>
+        <v>2251500.0</v>
       </c>
       <c r="C23" t="n">
-        <v>416600.0</v>
+        <v>337300.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1593200.0</v>
+        <v>263300.0</v>
       </c>
       <c r="B24" t="n">
-        <v>305700.0</v>
+        <v>3882800.0</v>
       </c>
       <c r="C24" t="n">
-        <v>504700.0</v>
+        <v>403400.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1764999.0</v>
+        <v>151100.0</v>
       </c>
       <c r="B25" t="n">
-        <v>335700.0</v>
+        <v>2452500.0</v>
       </c>
       <c r="C25" t="n">
-        <v>377100.0</v>
+        <v>355500.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1641801.0</v>
+        <v>175100.0</v>
       </c>
       <c r="B26" t="n">
-        <v>279300.0</v>
+        <v>2483900.0</v>
       </c>
       <c r="C26" t="n">
-        <v>311600.0</v>
+        <v>368500.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2123800.0</v>
+        <v>268600.0</v>
       </c>
       <c r="B27" t="n">
-        <v>347100.0</v>
+        <v>3955900.0</v>
       </c>
       <c r="C27" t="n">
-        <v>347200.0</v>
+        <v>335500.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1766700.0</v>
+        <v>200100.0</v>
       </c>
       <c r="B28" t="n">
-        <v>339801.0</v>
+        <v>2551300.0</v>
       </c>
       <c r="C28" t="n">
-        <v>486601.0</v>
+        <v>558300.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1568101.0</v>
+        <v>254100.0</v>
       </c>
       <c r="B29" t="n">
-        <v>479600.0</v>
+        <v>3308600.0</v>
       </c>
       <c r="C29" t="n">
-        <v>371700.0</v>
+        <v>577700.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1644000.0</v>
+        <v>323500.0</v>
       </c>
       <c r="B30" t="n">
-        <v>404300.0</v>
+        <v>2813500.0</v>
       </c>
       <c r="C30" t="n">
-        <v>320100.0</v>
+        <v>360300.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1558100.0</v>
+        <v>210300.0</v>
       </c>
       <c r="B31" t="n">
-        <v>433100.0</v>
+        <v>2298000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>304001.0</v>
+        <v>323100.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1578899.0</v>
+        <v>151400.0</v>
       </c>
       <c r="B32" t="n">
-        <v>323099.0</v>
+        <v>2211600.0</v>
       </c>
       <c r="C32" t="n">
-        <v>404500.0</v>
+        <v>386500.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1607800.0</v>
+        <v>262800.0</v>
       </c>
       <c r="B33" t="n">
-        <v>375700.0</v>
+        <v>4080700.0</v>
       </c>
       <c r="C33" t="n">
-        <v>377601.0</v>
+        <v>640400.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1465800.0</v>
+        <v>232000.0</v>
       </c>
       <c r="B34" t="n">
-        <v>398200.0</v>
+        <v>3342300.0</v>
       </c>
       <c r="C34" t="n">
-        <v>316800.0</v>
+        <v>488100.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1870101.0</v>
+        <v>198200.0</v>
       </c>
       <c r="B35" t="n">
-        <v>348001.0</v>
+        <v>2275000.0</v>
       </c>
       <c r="C35" t="n">
-        <v>356900.0</v>
+        <v>322100.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1495999.0</v>
+        <v>149700.0</v>
       </c>
       <c r="B36" t="n">
-        <v>364501.0</v>
+        <v>2324300.0</v>
       </c>
       <c r="C36" t="n">
-        <v>308800.0</v>
+        <v>406300.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1533700.0</v>
+        <v>146300.0</v>
       </c>
       <c r="B37" t="n">
-        <v>341001.0</v>
+        <v>2332100.0</v>
       </c>
       <c r="C37" t="n">
-        <v>395000.0</v>
+        <v>503600.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1850701.0</v>
+        <v>321700.0</v>
       </c>
       <c r="B38" t="n">
-        <v>323400.0</v>
+        <v>4310900.0</v>
       </c>
       <c r="C38" t="n">
-        <v>386299.0</v>
+        <v>540600.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1794500.0</v>
+        <v>244400.0</v>
       </c>
       <c r="B39" t="n">
-        <v>324200.0</v>
+        <v>3548300.0</v>
       </c>
       <c r="C39" t="n">
-        <v>405900.0</v>
+        <v>344800.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1942700.0</v>
+        <v>150600.0</v>
       </c>
       <c r="B40" t="n">
-        <v>385900.0</v>
+        <v>2347800.0</v>
       </c>
       <c r="C40" t="n">
-        <v>428199.0</v>
+        <v>377100.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1818099.0</v>
+        <v>149300.0</v>
       </c>
       <c r="B41" t="n">
-        <v>216500.0</v>
+        <v>2711900.0</v>
       </c>
       <c r="C41" t="n">
-        <v>328300.0</v>
+        <v>331500.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1669800.0</v>
+        <v>162400.0</v>
       </c>
       <c r="B42" t="n">
-        <v>273701.0</v>
+        <v>2174000.0</v>
       </c>
       <c r="C42" t="n">
-        <v>300000.0</v>
+        <v>531800.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1784000.0</v>
+        <v>206400.0</v>
       </c>
       <c r="B43" t="n">
-        <v>398599.0</v>
+        <v>2532500.0</v>
       </c>
       <c r="C43" t="n">
-        <v>445300.0</v>
+        <v>353100.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1647800.0</v>
+        <v>258100.0</v>
       </c>
       <c r="B44" t="n">
-        <v>336800.0</v>
+        <v>4159800.0</v>
       </c>
       <c r="C44" t="n">
-        <v>480500.0</v>
+        <v>321900.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2116200.0</v>
+        <v>244000.0</v>
       </c>
       <c r="B45" t="n">
-        <v>539800.0</v>
+        <v>2208200.0</v>
       </c>
       <c r="C45" t="n">
-        <v>391800.0</v>
+        <v>368100.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1807200.0</v>
+        <v>157400.0</v>
       </c>
       <c r="B46" t="n">
-        <v>798800.0</v>
+        <v>4342100.0</v>
       </c>
       <c r="C46" t="n">
-        <v>307399.0</v>
+        <v>468200.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1810999.0</v>
+        <v>234200.0</v>
       </c>
       <c r="B47" t="n">
-        <v>762699.0</v>
+        <v>3417400.0</v>
       </c>
       <c r="C47" t="n">
-        <v>392100.0</v>
+        <v>389200.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2263500.0</v>
+        <v>279000.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1190400.0</v>
+        <v>4079400.0</v>
       </c>
       <c r="C48" t="n">
-        <v>323101.0</v>
+        <v>608400.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1649000.0</v>
+        <v>245600.0</v>
       </c>
       <c r="B49" t="n">
-        <v>1727900.0</v>
+        <v>4102500.0</v>
       </c>
       <c r="C49" t="n">
-        <v>415999.0</v>
+        <v>361800.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1710900.0</v>
+        <v>238300.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2234500.0</v>
+        <v>2515000.0</v>
       </c>
       <c r="C50" t="n">
-        <v>509100.0</v>
+        <v>532500.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2738100.0</v>
+        <v>178900.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3780999.0</v>
+        <v>2600600.0</v>
       </c>
       <c r="C51" t="n">
-        <v>486300.0</v>
+        <v>312600.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1562100.0</v>
+        <v>327900.0</v>
       </c>
       <c r="B52" t="n">
-        <v>2019400.0</v>
+        <v>2615700.0</v>
       </c>
       <c r="C52" t="n">
-        <v>263600.0</v>
+        <v>307900.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1613400.0</v>
+        <v>138500.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2157400.0</v>
+        <v>2561000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>249900.0</v>
+        <v>431400.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1563100.0</v>
+        <v>150700.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2541500.0</v>
+        <v>2582300.0</v>
       </c>
       <c r="C54" t="n">
-        <v>249100.0</v>
+        <v>371100.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1593400.0</v>
+        <v>144300.0</v>
       </c>
       <c r="B55" t="n">
-        <v>2253499.0</v>
+        <v>2266900.0</v>
       </c>
       <c r="C55" t="n">
-        <v>298000.0</v>
+        <v>340800.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1728000.0</v>
+        <v>151500.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2323800.0</v>
+        <v>2208800.0</v>
       </c>
       <c r="C56" t="n">
-        <v>330499.0</v>
+        <v>413500.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1698500.0</v>
+        <v>171600.0</v>
       </c>
       <c r="B57" t="n">
-        <v>2072000.0</v>
+        <v>2201800.0</v>
       </c>
       <c r="C57" t="n">
-        <v>253800.0</v>
+        <v>421900.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1835000.0</v>
+        <v>157800.0</v>
       </c>
       <c r="B58" t="n">
-        <v>2154601.0</v>
+        <v>2767100.0</v>
       </c>
       <c r="C58" t="n">
-        <v>256399.0</v>
+        <v>445100.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1475500.0</v>
+        <v>212700.0</v>
       </c>
       <c r="B59" t="n">
-        <v>2181899.0</v>
+        <v>2535100.0</v>
       </c>
       <c r="C59" t="n">
-        <v>389099.0</v>
+        <v>320700.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1577299.0</v>
+        <v>163900.0</v>
       </c>
       <c r="B60" t="n">
-        <v>2166000.0</v>
+        <v>2134400.0</v>
       </c>
       <c r="C60" t="n">
-        <v>245600.0</v>
+        <v>363200.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1528101.0</v>
+        <v>174700.0</v>
       </c>
       <c r="B61" t="n">
-        <v>2817099.0</v>
+        <v>2106000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>244900.0</v>
+        <v>320100.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1507300.0</v>
+        <v>140900.0</v>
       </c>
       <c r="B62" t="n">
-        <v>2035899.0</v>
+        <v>2055800.0</v>
       </c>
       <c r="C62" t="n">
-        <v>315400.0</v>
+        <v>320600.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1934601.0</v>
+        <v>219800.0</v>
       </c>
       <c r="B63" t="n">
-        <v>2403600.0</v>
+        <v>2417900.0</v>
       </c>
       <c r="C63" t="n">
-        <v>249000.0</v>
+        <v>432700.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1611400.0</v>
+        <v>187300.0</v>
       </c>
       <c r="B64" t="n">
-        <v>2065800.0</v>
+        <v>2553000.0</v>
       </c>
       <c r="C64" t="n">
-        <v>244600.0</v>
+        <v>381200.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1794200.0</v>
+        <v>147600.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2328799.0</v>
+        <v>2174300.0</v>
       </c>
       <c r="C65" t="n">
-        <v>244000.0</v>
+        <v>320900.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1688999.0</v>
+        <v>141500.0</v>
       </c>
       <c r="B66" t="n">
-        <v>2141400.0</v>
+        <v>2083500.0</v>
       </c>
       <c r="C66" t="n">
-        <v>244500.0</v>
+        <v>320200.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1532600.0</v>
+        <v>189700.0</v>
       </c>
       <c r="B67" t="n">
-        <v>2118601.0</v>
+        <v>2389500.0</v>
       </c>
       <c r="C67" t="n">
-        <v>455200.0</v>
+        <v>398000.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1726000.0</v>
+        <v>134900.0</v>
       </c>
       <c r="B68" t="n">
-        <v>2394700.0</v>
+        <v>2094800.0</v>
       </c>
       <c r="C68" t="n">
-        <v>350999.0</v>
+        <v>320500.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1834399.0</v>
+        <v>140200.0</v>
       </c>
       <c r="B69" t="n">
-        <v>2477100.0</v>
+        <v>2186900.0</v>
       </c>
       <c r="C69" t="n">
-        <v>246200.0</v>
+        <v>317800.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1618300.0</v>
+        <v>135000.0</v>
       </c>
       <c r="B70" t="n">
-        <v>2169000.0</v>
+        <v>2030700.0</v>
       </c>
       <c r="C70" t="n">
-        <v>428900.0</v>
+        <v>606400.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1742201.0</v>
+        <v>316200.0</v>
       </c>
       <c r="B71" t="n">
-        <v>2271600.0</v>
+        <v>2342700.0</v>
       </c>
       <c r="C71" t="n">
-        <v>298600.0</v>
+        <v>390000.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1644200.0</v>
+        <v>157500.0</v>
       </c>
       <c r="B72" t="n">
-        <v>2121600.0</v>
+        <v>3522100.0</v>
       </c>
       <c r="C72" t="n">
-        <v>307901.0</v>
+        <v>497100.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1634899.0</v>
+        <v>398600.0</v>
       </c>
       <c r="B73" t="n">
-        <v>2160300.0</v>
+        <v>3514400.0</v>
       </c>
       <c r="C73" t="n">
-        <v>277100.0</v>
+        <v>529100.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1740199.0</v>
+        <v>268200.0</v>
       </c>
       <c r="B74" t="n">
-        <v>2184601.0</v>
+        <v>2529800.0</v>
       </c>
       <c r="C74" t="n">
-        <v>244700.0</v>
+        <v>371600.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1794399.0</v>
+        <v>141800.0</v>
       </c>
       <c r="B75" t="n">
-        <v>2667600.0</v>
+        <v>2040600.0</v>
       </c>
       <c r="C75" t="n">
-        <v>274699.0</v>
+        <v>324000.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1612100.0</v>
+        <v>136800.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2179799.0</v>
+        <v>2273500.0</v>
       </c>
       <c r="C76" t="n">
-        <v>305001.0</v>
+        <v>439900.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1679900.0</v>
+        <v>141500.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2149301.0</v>
+        <v>2216300.0</v>
       </c>
       <c r="C77" t="n">
-        <v>251900.0</v>
+        <v>320600.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1584300.0</v>
+        <v>204300.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2516900.0</v>
+        <v>2598800.0</v>
       </c>
       <c r="C78" t="n">
-        <v>298600.0</v>
+        <v>321100.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1501200.0</v>
+        <v>140900.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2201701.0</v>
+        <v>2204900.0</v>
       </c>
       <c r="C79" t="n">
-        <v>244901.0</v>
+        <v>320100.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1542700.0</v>
+        <v>135200.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2115801.0</v>
+        <v>2192100.0</v>
       </c>
       <c r="C80" t="n">
-        <v>328300.0</v>
+        <v>323900.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1674400.0</v>
+        <v>141600.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2190501.0</v>
+        <v>2789100.0</v>
       </c>
       <c r="C81" t="n">
-        <v>246201.0</v>
+        <v>444400.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2047600.0</v>
+        <v>134400.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2167000.0</v>
+        <v>2139100.0</v>
       </c>
       <c r="C82" t="n">
-        <v>244900.0</v>
+        <v>319000.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1490600.0</v>
+        <v>141700.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2200901.0</v>
+        <v>2370400.0</v>
       </c>
       <c r="C83" t="n">
-        <v>317100.0</v>
+        <v>320000.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1841800.0</v>
+        <v>185000.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2159100.0</v>
+        <v>2349100.0</v>
       </c>
       <c r="C84" t="n">
-        <v>243700.0</v>
+        <v>321300.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1758700.0</v>
+        <v>143900.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2376200.0</v>
+        <v>2083500.0</v>
       </c>
       <c r="C85" t="n">
-        <v>245001.0</v>
+        <v>318300.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1984100.0</v>
+        <v>161100.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2312201.0</v>
+        <v>2351800.0</v>
       </c>
       <c r="C86" t="n">
-        <v>290900.0</v>
+        <v>394300.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1564300.0</v>
+        <v>135500.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2273799.0</v>
+        <v>2486600.0</v>
       </c>
       <c r="C87" t="n">
-        <v>261999.0</v>
+        <v>321100.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1509900.0</v>
+        <v>174300.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2750299.0</v>
+        <v>2051400.0</v>
       </c>
       <c r="C88" t="n">
-        <v>245301.0</v>
+        <v>316300.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1752100.0</v>
+        <v>133300.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2090801.0</v>
+        <v>2208100.0</v>
       </c>
       <c r="C89" t="n">
-        <v>246000.0</v>
+        <v>455800.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1609299.0</v>
+        <v>142500.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2141900.0</v>
+        <v>2028200.0</v>
       </c>
       <c r="C90" t="n">
-        <v>245299.0</v>
+        <v>319800.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1632299.0</v>
+        <v>249000.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2229800.0</v>
+        <v>2332900.0</v>
       </c>
       <c r="C91" t="n">
-        <v>245600.0</v>
+        <v>395500.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2174000.0</v>
+        <v>142200.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2272300.0</v>
+        <v>2910100.0</v>
       </c>
       <c r="C92" t="n">
-        <v>244000.0</v>
+        <v>497200.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1705500.0</v>
+        <v>148600.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2248400.0</v>
+        <v>2202700.0</v>
       </c>
       <c r="C93" t="n">
-        <v>357100.0</v>
+        <v>323900.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1572000.0</v>
+        <v>139700.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2244299.0</v>
+        <v>2447300.0</v>
       </c>
       <c r="C94" t="n">
-        <v>282400.0</v>
+        <v>349500.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2160700.0</v>
+        <v>136000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2106800.0</v>
+        <v>2699800.0</v>
       </c>
       <c r="C95" t="n">
-        <v>552999.0</v>
+        <v>517200.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1629001.0</v>
+        <v>140100.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2076401.0</v>
+        <v>2476200.0</v>
       </c>
       <c r="C96" t="n">
-        <v>244800.0</v>
+        <v>391300.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1593501.0</v>
+        <v>134400.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2095500.0</v>
+        <v>2199300.0</v>
       </c>
       <c r="C97" t="n">
-        <v>286700.0</v>
+        <v>325200.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1476400.0</v>
+        <v>164700.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2861599.0</v>
+        <v>2470100.0</v>
       </c>
       <c r="C98" t="n">
-        <v>392800.0</v>
+        <v>333100.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1772001.0</v>
+        <v>175500.0</v>
       </c>
       <c r="B99" t="n">
-        <v>2198499.0</v>
+        <v>2171400.0</v>
       </c>
       <c r="C99" t="n">
-        <v>327300.0</v>
+        <v>326800.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1698900.0</v>
+        <v>139800.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2139400.0</v>
+        <v>2326200.0</v>
       </c>
       <c r="C100" t="n">
-        <v>325600.0</v>
+        <v>321200.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1648899.0</v>
+        <v>161400.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2841401.0</v>
+        <v>2915400.0</v>
       </c>
       <c r="C101" t="n">
-        <v>246900.0</v>
+        <v>479300.0</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2794,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,7 +2809,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>2571.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2826,1102 +2832,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4884901.0</v>
+        <v>1128700.0</v>
       </c>
       <c r="B2" t="n">
-        <v>56301.0</v>
+        <v>2099100.0</v>
       </c>
       <c r="C2" t="n">
-        <v>154401.0</v>
+        <v>297800.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4738000.0</v>
+        <v>1160300.0</v>
       </c>
       <c r="B3" t="n">
-        <v>237300.0</v>
+        <v>2226400.0</v>
       </c>
       <c r="C3" t="n">
-        <v>139001.0</v>
+        <v>293700.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4264499.0</v>
+        <v>1391800.0</v>
       </c>
       <c r="B4" t="n">
-        <v>355201.0</v>
+        <v>2342800.0</v>
       </c>
       <c r="C4" t="n">
-        <v>140700.0</v>
+        <v>291800.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4503901.0</v>
+        <v>1839900.0</v>
       </c>
       <c r="B5" t="n">
-        <v>222299.0</v>
+        <v>2169000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>156700.0</v>
+        <v>344300.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4017699.0</v>
+        <v>1059000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>569399.0</v>
+        <v>2311800.0</v>
       </c>
       <c r="C6" t="n">
-        <v>285399.0</v>
+        <v>456700.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4010000.0</v>
+        <v>1099800.0</v>
       </c>
       <c r="B7" t="n">
-        <v>322300.0</v>
+        <v>2212100.0</v>
       </c>
       <c r="C7" t="n">
-        <v>139300.0</v>
+        <v>289900.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4453700.0</v>
+        <v>1120200.0</v>
       </c>
       <c r="B8" t="n">
-        <v>378700.0</v>
+        <v>2813600.0</v>
       </c>
       <c r="C8" t="n">
-        <v>129500.0</v>
+        <v>325600.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4712501.0</v>
+        <v>1058700.0</v>
       </c>
       <c r="B9" t="n">
-        <v>312299.0</v>
+        <v>2377700.0</v>
       </c>
       <c r="C9" t="n">
-        <v>140300.0</v>
+        <v>311500.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4423500.0</v>
+        <v>1667700.0</v>
       </c>
       <c r="B10" t="n">
-        <v>343200.0</v>
+        <v>2511700.0</v>
       </c>
       <c r="C10" t="n">
-        <v>132501.0</v>
+        <v>293100.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4803500.0</v>
+        <v>1228800.0</v>
       </c>
       <c r="B11" t="n">
-        <v>314000.0</v>
+        <v>2181300.0</v>
       </c>
       <c r="C11" t="n">
-        <v>339000.0</v>
+        <v>327400.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5398600.0</v>
+        <v>1798100.0</v>
       </c>
       <c r="B12" t="n">
-        <v>331801.0</v>
+        <v>2215700.0</v>
       </c>
       <c r="C12" t="n">
-        <v>159899.0</v>
+        <v>290000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4395900.0</v>
+        <v>1173500.0</v>
       </c>
       <c r="B13" t="n">
-        <v>324601.0</v>
+        <v>2114900.0</v>
       </c>
       <c r="C13" t="n">
-        <v>135801.0</v>
+        <v>347700.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4562200.0</v>
+        <v>1172300.0</v>
       </c>
       <c r="B14" t="n">
-        <v>355899.0</v>
+        <v>2454100.0</v>
       </c>
       <c r="C14" t="n">
-        <v>192800.0</v>
+        <v>309600.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4143300.0</v>
+        <v>1053200.0</v>
       </c>
       <c r="B15" t="n">
-        <v>356100.0</v>
+        <v>2604600.0</v>
       </c>
       <c r="C15" t="n">
-        <v>128600.0</v>
+        <v>481100.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4609500.0</v>
+        <v>1109400.0</v>
       </c>
       <c r="B16" t="n">
-        <v>151600.0</v>
+        <v>2336300.0</v>
       </c>
       <c r="C16" t="n">
-        <v>145000.0</v>
+        <v>378700.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4402600.0</v>
+        <v>1362400.0</v>
       </c>
       <c r="B17" t="n">
-        <v>311299.0</v>
+        <v>2151800.0</v>
       </c>
       <c r="C17" t="n">
-        <v>216400.0</v>
+        <v>291500.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4050000.0</v>
+        <v>1401800.0</v>
       </c>
       <c r="B18" t="n">
-        <v>518501.0</v>
+        <v>2112500.0</v>
       </c>
       <c r="C18" t="n">
-        <v>145101.0</v>
+        <v>290800.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4620301.0</v>
+        <v>1252000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>129601.0</v>
+        <v>2421200.0</v>
       </c>
       <c r="C19" t="n">
-        <v>255900.0</v>
+        <v>292500.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4240600.0</v>
+        <v>1140000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>365500.0</v>
+        <v>2262100.0</v>
       </c>
       <c r="C20" t="n">
-        <v>183100.0</v>
+        <v>291200.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4223900.0</v>
+        <v>1090600.0</v>
       </c>
       <c r="B21" t="n">
-        <v>308399.0</v>
+        <v>2225300.0</v>
       </c>
       <c r="C21" t="n">
-        <v>126700.0</v>
+        <v>530800.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5328100.0</v>
+        <v>1144200.0</v>
       </c>
       <c r="B22" t="n">
-        <v>229000.0</v>
+        <v>2448000.0</v>
       </c>
       <c r="C22" t="n">
-        <v>170199.0</v>
+        <v>292500.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5066600.0</v>
+        <v>1689300.0</v>
       </c>
       <c r="B23" t="n">
-        <v>131500.0</v>
+        <v>2390300.0</v>
       </c>
       <c r="C23" t="n">
-        <v>133400.0</v>
+        <v>337500.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4225301.0</v>
+        <v>1094600.0</v>
       </c>
       <c r="B24" t="n">
-        <v>226000.0</v>
+        <v>2100700.0</v>
       </c>
       <c r="C24" t="n">
-        <v>125801.0</v>
+        <v>407500.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4622100.0</v>
+        <v>1088000.0</v>
       </c>
       <c r="B25" t="n">
-        <v>377200.0</v>
+        <v>2556500.0</v>
       </c>
       <c r="C25" t="n">
-        <v>142900.0</v>
+        <v>557600.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4993600.0</v>
+        <v>1251000.0</v>
       </c>
       <c r="B26" t="n">
-        <v>343500.0</v>
+        <v>2796900.0</v>
       </c>
       <c r="C26" t="n">
-        <v>139900.0</v>
+        <v>296900.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4196601.0</v>
+        <v>1221400.0</v>
       </c>
       <c r="B27" t="n">
-        <v>396199.0</v>
+        <v>2139600.0</v>
       </c>
       <c r="C27" t="n">
-        <v>140000.0</v>
+        <v>291200.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4737600.0</v>
+        <v>1417700.0</v>
       </c>
       <c r="B28" t="n">
-        <v>314601.0</v>
+        <v>2503400.0</v>
       </c>
       <c r="C28" t="n">
-        <v>126700.0</v>
+        <v>292200.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4462301.0</v>
+        <v>1254900.0</v>
       </c>
       <c r="B29" t="n">
-        <v>152299.0</v>
+        <v>2428400.0</v>
       </c>
       <c r="C29" t="n">
-        <v>142100.0</v>
+        <v>293700.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4183401.0</v>
+        <v>1563400.0</v>
       </c>
       <c r="B30" t="n">
-        <v>292000.0</v>
+        <v>2107700.0</v>
       </c>
       <c r="C30" t="n">
-        <v>258100.0</v>
+        <v>291900.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5144399.0</v>
+        <v>1139200.0</v>
       </c>
       <c r="B31" t="n">
-        <v>430799.0</v>
+        <v>2338500.0</v>
       </c>
       <c r="C31" t="n">
-        <v>136200.0</v>
+        <v>335300.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4124399.0</v>
+        <v>1154800.0</v>
       </c>
       <c r="B32" t="n">
-        <v>528800.0</v>
+        <v>2432400.0</v>
       </c>
       <c r="C32" t="n">
-        <v>124301.0</v>
+        <v>291000.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4177499.0</v>
+        <v>1139000.0</v>
       </c>
       <c r="B33" t="n">
-        <v>184000.0</v>
+        <v>2633800.0</v>
       </c>
       <c r="C33" t="n">
-        <v>138600.0</v>
+        <v>438300.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5045200.0</v>
+        <v>1346300.0</v>
       </c>
       <c r="B34" t="n">
-        <v>410501.0</v>
+        <v>2161100.0</v>
       </c>
       <c r="C34" t="n">
-        <v>126500.0</v>
+        <v>379800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4080999.0</v>
+        <v>1215500.0</v>
       </c>
       <c r="B35" t="n">
-        <v>121000.0</v>
+        <v>2482400.0</v>
       </c>
       <c r="C35" t="n">
-        <v>148700.0</v>
+        <v>476700.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4177200.0</v>
+        <v>1377500.0</v>
       </c>
       <c r="B36" t="n">
-        <v>192901.0</v>
+        <v>2144500.0</v>
       </c>
       <c r="C36" t="n">
-        <v>128000.0</v>
+        <v>571900.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4904800.0</v>
+        <v>1024600.0</v>
       </c>
       <c r="B37" t="n">
-        <v>454700.0</v>
+        <v>2822500.0</v>
       </c>
       <c r="C37" t="n">
-        <v>141501.0</v>
+        <v>356000.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4203100.0</v>
+        <v>1181100.0</v>
       </c>
       <c r="B38" t="n">
-        <v>333600.0</v>
+        <v>2403800.0</v>
       </c>
       <c r="C38" t="n">
-        <v>135700.0</v>
+        <v>357200.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4202301.0</v>
+        <v>1149100.0</v>
       </c>
       <c r="B39" t="n">
-        <v>355100.0</v>
+        <v>2132600.0</v>
       </c>
       <c r="C39" t="n">
-        <v>126999.0</v>
+        <v>398300.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4980901.0</v>
+        <v>1665000.0</v>
       </c>
       <c r="B40" t="n">
-        <v>454699.0</v>
+        <v>2264200.0</v>
       </c>
       <c r="C40" t="n">
-        <v>212701.0</v>
+        <v>543900.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4117900.0</v>
+        <v>1445500.0</v>
       </c>
       <c r="B41" t="n">
-        <v>172300.0</v>
+        <v>2471500.0</v>
       </c>
       <c r="C41" t="n">
-        <v>127400.0</v>
+        <v>384800.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4191100.0</v>
+        <v>2264300.0</v>
       </c>
       <c r="B42" t="n">
-        <v>108100.0</v>
+        <v>2534600.0</v>
       </c>
       <c r="C42" t="n">
-        <v>268000.0</v>
+        <v>315100.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5068700.0</v>
+        <v>1756000.0</v>
       </c>
       <c r="B43" t="n">
-        <v>301100.0</v>
+        <v>2722900.0</v>
       </c>
       <c r="C43" t="n">
-        <v>138700.0</v>
+        <v>339400.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4290400.0</v>
+        <v>1757100.0</v>
       </c>
       <c r="B44" t="n">
-        <v>204701.0</v>
+        <v>3035600.0</v>
       </c>
       <c r="C44" t="n">
-        <v>136400.0</v>
+        <v>401000.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4130800.0</v>
+        <v>1815400.0</v>
       </c>
       <c r="B45" t="n">
-        <v>289700.0</v>
+        <v>2779700.0</v>
       </c>
       <c r="C45" t="n">
-        <v>131900.0</v>
+        <v>412600.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5448899.0</v>
+        <v>1269300.0</v>
       </c>
       <c r="B46" t="n">
-        <v>257799.0</v>
+        <v>2281700.0</v>
       </c>
       <c r="C46" t="n">
-        <v>142100.0</v>
+        <v>370200.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4023000.0</v>
+        <v>1658300.0</v>
       </c>
       <c r="B47" t="n">
-        <v>385800.0</v>
+        <v>3230900.0</v>
       </c>
       <c r="C47" t="n">
-        <v>140901.0</v>
+        <v>427400.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4904900.0</v>
+        <v>1533100.0</v>
       </c>
       <c r="B48" t="n">
-        <v>301900.0</v>
+        <v>2961900.0</v>
       </c>
       <c r="C48" t="n">
-        <v>130000.0</v>
+        <v>357600.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4230800.0</v>
+        <v>1251500.0</v>
       </c>
       <c r="B49" t="n">
-        <v>211700.0</v>
+        <v>2517300.0</v>
       </c>
       <c r="C49" t="n">
-        <v>147700.0</v>
+        <v>328000.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4337300.0</v>
+        <v>1659900.0</v>
       </c>
       <c r="B50" t="n">
-        <v>312200.0</v>
+        <v>2677100.0</v>
       </c>
       <c r="C50" t="n">
-        <v>136300.0</v>
+        <v>340900.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4867301.0</v>
+        <v>1179000.0</v>
       </c>
       <c r="B51" t="n">
-        <v>344700.0</v>
+        <v>2960800.0</v>
       </c>
       <c r="C51" t="n">
-        <v>135000.0</v>
+        <v>293600.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5460201.0</v>
+        <v>1406300.0</v>
       </c>
       <c r="B52" t="n">
-        <v>251900.0</v>
+        <v>2614100.0</v>
       </c>
       <c r="C52" t="n">
-        <v>317599.0</v>
+        <v>531900.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4060201.0</v>
+        <v>1985700.0</v>
       </c>
       <c r="B53" t="n">
-        <v>278201.0</v>
+        <v>4096800.0</v>
       </c>
       <c r="C53" t="n">
-        <v>141900.0</v>
+        <v>482300.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4895700.0</v>
+        <v>1988600.0</v>
       </c>
       <c r="B54" t="n">
-        <v>171700.0</v>
+        <v>3451600.0</v>
       </c>
       <c r="C54" t="n">
-        <v>141600.0</v>
+        <v>337600.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4307500.0</v>
+        <v>1752200.0</v>
       </c>
       <c r="B55" t="n">
-        <v>266701.0</v>
+        <v>2617900.0</v>
       </c>
       <c r="C55" t="n">
-        <v>128000.0</v>
+        <v>316200.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4207000.0</v>
+        <v>1414100.0</v>
       </c>
       <c r="B56" t="n">
-        <v>309000.0</v>
+        <v>3483200.0</v>
       </c>
       <c r="C56" t="n">
-        <v>205300.0</v>
+        <v>503100.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5131000.0</v>
+        <v>2117500.0</v>
       </c>
       <c r="B57" t="n">
-        <v>277600.0</v>
+        <v>4128900.0</v>
       </c>
       <c r="C57" t="n">
-        <v>191401.0</v>
+        <v>336800.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4096600.0</v>
+        <v>1742400.0</v>
       </c>
       <c r="B58" t="n">
-        <v>252201.0</v>
+        <v>2829100.0</v>
       </c>
       <c r="C58" t="n">
-        <v>131599.0</v>
+        <v>470500.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4123201.0</v>
+        <v>1617000.0</v>
       </c>
       <c r="B59" t="n">
-        <v>280500.0</v>
+        <v>2193700.0</v>
       </c>
       <c r="C59" t="n">
-        <v>187700.0</v>
+        <v>322800.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4831599.0</v>
+        <v>1145500.0</v>
       </c>
       <c r="B60" t="n">
-        <v>429100.0</v>
+        <v>2056200.0</v>
       </c>
       <c r="C60" t="n">
-        <v>130400.0</v>
+        <v>383400.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4344900.0</v>
+        <v>1229800.0</v>
       </c>
       <c r="B61" t="n">
-        <v>450100.0</v>
+        <v>2846100.0</v>
       </c>
       <c r="C61" t="n">
-        <v>128601.0</v>
+        <v>292100.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4596001.0</v>
+        <v>1165800.0</v>
       </c>
       <c r="B62" t="n">
-        <v>415000.0</v>
+        <v>2239600.0</v>
       </c>
       <c r="C62" t="n">
-        <v>124200.0</v>
+        <v>290800.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4993900.0</v>
+        <v>1058300.0</v>
       </c>
       <c r="B63" t="n">
-        <v>469000.0</v>
+        <v>2562600.0</v>
       </c>
       <c r="C63" t="n">
-        <v>185500.0</v>
+        <v>289900.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4388100.0</v>
+        <v>1103900.0</v>
       </c>
       <c r="B64" t="n">
-        <v>445101.0</v>
+        <v>2217300.0</v>
       </c>
       <c r="C64" t="n">
-        <v>276600.0</v>
+        <v>292500.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4438600.0</v>
+        <v>1339500.0</v>
       </c>
       <c r="B65" t="n">
-        <v>347500.0</v>
+        <v>2172800.0</v>
       </c>
       <c r="C65" t="n">
-        <v>130300.0</v>
+        <v>291200.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4511100.0</v>
+        <v>1354100.0</v>
       </c>
       <c r="B66" t="n">
-        <v>415999.0</v>
+        <v>2198400.0</v>
       </c>
       <c r="C66" t="n">
-        <v>130700.0</v>
+        <v>291200.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4369900.0</v>
+        <v>1004000.0</v>
       </c>
       <c r="B67" t="n">
-        <v>332901.0</v>
+        <v>2108100.0</v>
       </c>
       <c r="C67" t="n">
-        <v>127500.0</v>
+        <v>290600.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4144200.0</v>
+        <v>1198400.0</v>
       </c>
       <c r="B68" t="n">
-        <v>376599.0</v>
+        <v>2258200.0</v>
       </c>
       <c r="C68" t="n">
-        <v>184400.0</v>
+        <v>382400.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4631700.0</v>
+        <v>1470600.0</v>
       </c>
       <c r="B69" t="n">
-        <v>485300.0</v>
+        <v>2157800.0</v>
       </c>
       <c r="C69" t="n">
-        <v>124799.0</v>
+        <v>293700.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4241801.0</v>
+        <v>1139300.0</v>
       </c>
       <c r="B70" t="n">
-        <v>521400.0</v>
+        <v>2319800.0</v>
       </c>
       <c r="C70" t="n">
-        <v>201499.0</v>
+        <v>347300.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4460201.0</v>
+        <v>1060600.0</v>
       </c>
       <c r="B71" t="n">
-        <v>322500.0</v>
+        <v>2614300.0</v>
       </c>
       <c r="C71" t="n">
-        <v>125201.0</v>
+        <v>291800.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4629200.0</v>
+        <v>1188000.0</v>
       </c>
       <c r="B72" t="n">
-        <v>339099.0</v>
+        <v>2128700.0</v>
       </c>
       <c r="C72" t="n">
-        <v>125900.0</v>
+        <v>352400.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4655501.0</v>
+        <v>1075700.0</v>
       </c>
       <c r="B73" t="n">
-        <v>322699.0</v>
+        <v>2243600.0</v>
       </c>
       <c r="C73" t="n">
-        <v>125399.0</v>
+        <v>326100.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4513200.0</v>
+        <v>1279500.0</v>
       </c>
       <c r="B74" t="n">
-        <v>364500.0</v>
+        <v>2152100.0</v>
       </c>
       <c r="C74" t="n">
-        <v>125001.0</v>
+        <v>290400.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5065300.0</v>
+        <v>1245700.0</v>
       </c>
       <c r="B75" t="n">
-        <v>609999.0</v>
+        <v>2334900.0</v>
       </c>
       <c r="C75" t="n">
-        <v>124700.0</v>
+        <v>333300.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5025600.0</v>
+        <v>1491900.0</v>
       </c>
       <c r="B76" t="n">
-        <v>333200.0</v>
+        <v>4084800.0</v>
       </c>
       <c r="C76" t="n">
-        <v>130000.0</v>
+        <v>401100.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4140300.0</v>
+        <v>1353900.0</v>
       </c>
       <c r="B77" t="n">
-        <v>332700.0</v>
+        <v>2590600.0</v>
       </c>
       <c r="C77" t="n">
-        <v>176400.0</v>
+        <v>314900.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4716400.0</v>
+        <v>1179300.0</v>
       </c>
       <c r="B78" t="n">
-        <v>431801.0</v>
+        <v>3419400.0</v>
       </c>
       <c r="C78" t="n">
-        <v>211799.0</v>
+        <v>292400.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5412300.0</v>
+        <v>1182800.0</v>
       </c>
       <c r="B79" t="n">
-        <v>323000.0</v>
+        <v>3663600.0</v>
       </c>
       <c r="C79" t="n">
-        <v>126299.0</v>
+        <v>293500.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4646000.0</v>
+        <v>1155600.0</v>
       </c>
       <c r="B80" t="n">
-        <v>481901.0</v>
+        <v>2914700.0</v>
       </c>
       <c r="C80" t="n">
-        <v>127800.0</v>
+        <v>377500.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4976001.0</v>
+        <v>1505900.0</v>
       </c>
       <c r="B81" t="n">
-        <v>333400.0</v>
+        <v>2250800.0</v>
       </c>
       <c r="C81" t="n">
-        <v>128799.0</v>
+        <v>490600.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4062100.0</v>
+        <v>1667100.0</v>
       </c>
       <c r="B82" t="n">
-        <v>410101.0</v>
+        <v>2590700.0</v>
       </c>
       <c r="C82" t="n">
-        <v>128800.0</v>
+        <v>474000.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4525999.0</v>
+        <v>1352900.0</v>
       </c>
       <c r="B83" t="n">
-        <v>332500.0</v>
+        <v>2624900.0</v>
       </c>
       <c r="C83" t="n">
-        <v>140200.0</v>
+        <v>360000.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4466700.0</v>
+        <v>1631600.0</v>
       </c>
       <c r="B84" t="n">
-        <v>322699.0</v>
+        <v>2620200.0</v>
       </c>
       <c r="C84" t="n">
-        <v>124500.0</v>
+        <v>293500.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4054400.0</v>
+        <v>1351400.0</v>
       </c>
       <c r="B85" t="n">
-        <v>422800.0</v>
+        <v>2749500.0</v>
       </c>
       <c r="C85" t="n">
-        <v>145900.0</v>
+        <v>351800.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4988700.0</v>
+        <v>1377300.0</v>
       </c>
       <c r="B86" t="n">
-        <v>694101.0</v>
+        <v>2695100.0</v>
       </c>
       <c r="C86" t="n">
-        <v>161599.0</v>
+        <v>420600.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4536101.0</v>
+        <v>1275800.0</v>
       </c>
       <c r="B87" t="n">
-        <v>426299.0</v>
+        <v>3359400.0</v>
       </c>
       <c r="C87" t="n">
-        <v>219901.0</v>
+        <v>426500.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4235900.0</v>
+        <v>2172800.0</v>
       </c>
       <c r="B88" t="n">
-        <v>357600.0</v>
+        <v>2785300.0</v>
       </c>
       <c r="C88" t="n">
-        <v>314800.0</v>
+        <v>462400.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5935101.0</v>
+        <v>1355500.0</v>
       </c>
       <c r="B89" t="n">
-        <v>590100.0</v>
+        <v>2711900.0</v>
       </c>
       <c r="C89" t="n">
-        <v>158099.0</v>
+        <v>297600.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5775100.0</v>
+        <v>1185800.0</v>
       </c>
       <c r="B90" t="n">
-        <v>443200.0</v>
+        <v>2481000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>286600.0</v>
+        <v>408100.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5346101.0</v>
+        <v>1677800.0</v>
       </c>
       <c r="B91" t="n">
-        <v>556000.0</v>
+        <v>2797200.0</v>
       </c>
       <c r="C91" t="n">
-        <v>181400.0</v>
+        <v>310000.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4985000.0</v>
+        <v>1386400.0</v>
       </c>
       <c r="B92" t="n">
-        <v>332900.0</v>
+        <v>2355100.0</v>
       </c>
       <c r="C92" t="n">
-        <v>128700.0</v>
+        <v>420400.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4337401.0</v>
+        <v>1734500.0</v>
       </c>
       <c r="B93" t="n">
-        <v>373801.0</v>
+        <v>2826300.0</v>
       </c>
       <c r="C93" t="n">
-        <v>127600.0</v>
+        <v>317100.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4494801.0</v>
+        <v>1620400.0</v>
       </c>
       <c r="B94" t="n">
-        <v>439100.0</v>
+        <v>2518200.0</v>
       </c>
       <c r="C94" t="n">
-        <v>128901.0</v>
+        <v>501400.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5139800.0</v>
+        <v>1482000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>323100.0</v>
+        <v>2342200.0</v>
       </c>
       <c r="C95" t="n">
-        <v>184200.0</v>
+        <v>313200.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4936000.0</v>
+        <v>1271700.0</v>
       </c>
       <c r="B96" t="n">
-        <v>467500.0</v>
+        <v>2396100.0</v>
       </c>
       <c r="C96" t="n">
-        <v>124200.0</v>
+        <v>290900.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4281699.0</v>
+        <v>1225300.0</v>
       </c>
       <c r="B97" t="n">
-        <v>395900.0</v>
+        <v>2803600.0</v>
       </c>
       <c r="C97" t="n">
-        <v>142000.0</v>
+        <v>291400.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4761599.0</v>
+        <v>1050700.0</v>
       </c>
       <c r="B98" t="n">
-        <v>333000.0</v>
+        <v>2496800.0</v>
       </c>
       <c r="C98" t="n">
-        <v>127799.0</v>
+        <v>291800.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4504299.0</v>
+        <v>1291800.0</v>
       </c>
       <c r="B99" t="n">
-        <v>428600.0</v>
+        <v>2612500.0</v>
       </c>
       <c r="C99" t="n">
-        <v>126600.0</v>
+        <v>423900.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4203501.0</v>
+        <v>1137900.0</v>
       </c>
       <c r="B100" t="n">
-        <v>332700.0</v>
+        <v>2222900.0</v>
       </c>
       <c r="C100" t="n">
-        <v>126500.0</v>
+        <v>408000.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4676800.0</v>
+        <v>1211900.0</v>
       </c>
       <c r="B101" t="n">
-        <v>322700.0</v>
+        <v>2248700.0</v>
       </c>
       <c r="C101" t="n">
-        <v>124700.0</v>
+        <v>293200.0</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3943,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="D1" activeCell="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3952,7 +3958,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>3107.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3973,1102 +3981,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1496700.0</v>
+        <v>1299600.0</v>
       </c>
       <c r="B2" t="n">
-        <v>817600.0</v>
+        <v>2684700.0</v>
       </c>
       <c r="C2" t="n">
-        <v>371800.0</v>
+        <v>385900.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1293500.0</v>
+        <v>1603500.0</v>
       </c>
       <c r="B3" t="n">
-        <v>474101.0</v>
+        <v>2121400.0</v>
       </c>
       <c r="C3" t="n">
-        <v>332000.0</v>
+        <v>273600.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1196999.0</v>
+        <v>2711900.0</v>
       </c>
       <c r="B4" t="n">
-        <v>865300.0</v>
+        <v>2246600.0</v>
       </c>
       <c r="C4" t="n">
-        <v>378199.0</v>
+        <v>273600.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1269000.0</v>
+        <v>2218600.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1010401.0</v>
+        <v>2254300.0</v>
       </c>
       <c r="C5" t="n">
-        <v>306700.0</v>
+        <v>273800.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1308900.0</v>
+        <v>1680300.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1309100.0</v>
+        <v>2543700.0</v>
       </c>
       <c r="C6" t="n">
-        <v>399701.0</v>
+        <v>323300.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1148499.0</v>
+        <v>1388000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1486600.0</v>
+        <v>2127300.0</v>
       </c>
       <c r="C7" t="n">
-        <v>460899.0</v>
+        <v>328900.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1420699.0</v>
+        <v>1849700.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1892500.0</v>
+        <v>2434500.0</v>
       </c>
       <c r="C8" t="n">
-        <v>315300.0</v>
+        <v>273500.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1200500.0</v>
+        <v>1425000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2248300.0</v>
+        <v>2411500.0</v>
       </c>
       <c r="C9" t="n">
-        <v>312000.0</v>
+        <v>273200.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1164900.0</v>
+        <v>1961800.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2659600.0</v>
+        <v>2182000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>303000.0</v>
+        <v>359900.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1211400.0</v>
+        <v>2044600.0</v>
       </c>
       <c r="B11" t="n">
-        <v>2516900.0</v>
+        <v>2198500.0</v>
       </c>
       <c r="C11" t="n">
-        <v>286200.0</v>
+        <v>297000.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1256299.0</v>
+        <v>2181900.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2399300.0</v>
+        <v>2209700.0</v>
       </c>
       <c r="C12" t="n">
-        <v>289299.0</v>
+        <v>273800.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1357300.0</v>
+        <v>1839400.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2680199.0</v>
+        <v>2527700.0</v>
       </c>
       <c r="C13" t="n">
-        <v>333000.0</v>
+        <v>382700.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1558399.0</v>
+        <v>1763700.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2515999.0</v>
+        <v>2418800.0</v>
       </c>
       <c r="C14" t="n">
-        <v>433000.0</v>
+        <v>272900.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1152099.0</v>
+        <v>1364400.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2806001.0</v>
+        <v>2112700.0</v>
       </c>
       <c r="C15" t="n">
-        <v>303900.0</v>
+        <v>352800.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1214100.0</v>
+        <v>1744800.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2405899.0</v>
+        <v>2388900.0</v>
       </c>
       <c r="C16" t="n">
-        <v>374501.0</v>
+        <v>333700.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1235899.0</v>
+        <v>1564700.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2669600.0</v>
+        <v>2416700.0</v>
       </c>
       <c r="C17" t="n">
-        <v>394600.0</v>
+        <v>429900.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1214700.0</v>
+        <v>1549900.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2460800.0</v>
+        <v>2147200.0</v>
       </c>
       <c r="C18" t="n">
-        <v>299500.0</v>
+        <v>275200.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1341100.0</v>
+        <v>1899200.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2576901.0</v>
+        <v>2955800.0</v>
       </c>
       <c r="C19" t="n">
-        <v>291500.0</v>
+        <v>273900.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1112300.0</v>
+        <v>1586400.0</v>
       </c>
       <c r="B20" t="n">
-        <v>2621700.0</v>
+        <v>2356700.0</v>
       </c>
       <c r="C20" t="n">
-        <v>344999.0</v>
+        <v>377300.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1185701.0</v>
+        <v>2709000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>2464400.0</v>
+        <v>2775700.0</v>
       </c>
       <c r="C21" t="n">
-        <v>292200.0</v>
+        <v>276900.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1173100.0</v>
+        <v>1714900.0</v>
       </c>
       <c r="B22" t="n">
-        <v>2406601.0</v>
+        <v>2249300.0</v>
       </c>
       <c r="C22" t="n">
-        <v>335001.0</v>
+        <v>276600.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1218200.0</v>
+        <v>1436700.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2523500.0</v>
+        <v>2150500.0</v>
       </c>
       <c r="C23" t="n">
-        <v>420900.0</v>
+        <v>332500.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1113000.0</v>
+        <v>1522000.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2736800.0</v>
+        <v>2460500.0</v>
       </c>
       <c r="C24" t="n">
-        <v>308600.0</v>
+        <v>276500.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1186001.0</v>
+        <v>2691800.0</v>
       </c>
       <c r="B25" t="n">
-        <v>2486600.0</v>
+        <v>2506800.0</v>
       </c>
       <c r="C25" t="n">
-        <v>397100.0</v>
+        <v>387300.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1178700.0</v>
+        <v>1751100.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2611699.0</v>
+        <v>2895600.0</v>
       </c>
       <c r="C26" t="n">
-        <v>299699.0</v>
+        <v>305200.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1178500.0</v>
+        <v>1764600.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2830999.0</v>
+        <v>2284100.0</v>
       </c>
       <c r="C27" t="n">
-        <v>322299.0</v>
+        <v>274100.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1288700.0</v>
+        <v>1755400.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2945000.0</v>
+        <v>2292700.0</v>
       </c>
       <c r="C28" t="n">
-        <v>289801.0</v>
+        <v>334100.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1298401.0</v>
+        <v>1478700.0</v>
       </c>
       <c r="B29" t="n">
-        <v>2559799.0</v>
+        <v>2099400.0</v>
       </c>
       <c r="C29" t="n">
-        <v>313300.0</v>
+        <v>272300.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1207800.0</v>
+        <v>1484400.0</v>
       </c>
       <c r="B30" t="n">
-        <v>2840700.0</v>
+        <v>2386300.0</v>
       </c>
       <c r="C30" t="n">
-        <v>494600.0</v>
+        <v>438400.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1198800.0</v>
+        <v>1554700.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2480200.0</v>
+        <v>2309200.0</v>
       </c>
       <c r="C31" t="n">
-        <v>283300.0</v>
+        <v>334700.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1241300.0</v>
+        <v>1517300.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2766300.0</v>
+        <v>2401100.0</v>
       </c>
       <c r="C32" t="n">
-        <v>371500.0</v>
+        <v>292200.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1210999.0</v>
+        <v>1583900.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2525700.0</v>
+        <v>2180500.0</v>
       </c>
       <c r="C33" t="n">
-        <v>306399.0</v>
+        <v>271900.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1214000.0</v>
+        <v>2714800.0</v>
       </c>
       <c r="B34" t="n">
-        <v>3277300.0</v>
+        <v>3099200.0</v>
       </c>
       <c r="C34" t="n">
-        <v>297499.0</v>
+        <v>573800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1251600.0</v>
+        <v>1389500.0</v>
       </c>
       <c r="B35" t="n">
-        <v>2476100.0</v>
+        <v>2208500.0</v>
       </c>
       <c r="C35" t="n">
-        <v>343701.0</v>
+        <v>343700.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1117100.0</v>
+        <v>1862400.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2557200.0</v>
+        <v>2175800.0</v>
       </c>
       <c r="C36" t="n">
-        <v>290700.0</v>
+        <v>373900.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1349500.0</v>
+        <v>1526700.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3215800.0</v>
+        <v>2351400.0</v>
       </c>
       <c r="C37" t="n">
-        <v>534600.0</v>
+        <v>379300.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1569000.0</v>
+        <v>1658100.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2584500.0</v>
+        <v>2980500.0</v>
       </c>
       <c r="C38" t="n">
-        <v>337000.0</v>
+        <v>278600.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1158600.0</v>
+        <v>1657200.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2504601.0</v>
+        <v>2565200.0</v>
       </c>
       <c r="C39" t="n">
-        <v>381600.0</v>
+        <v>273400.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1176899.0</v>
+        <v>1415500.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2700200.0</v>
+        <v>2233300.0</v>
       </c>
       <c r="C40" t="n">
-        <v>288799.0</v>
+        <v>317900.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1281700.0</v>
+        <v>1490300.0</v>
       </c>
       <c r="B41" t="n">
-        <v>4517099.0</v>
+        <v>2618700.0</v>
       </c>
       <c r="C41" t="n">
-        <v>438500.0</v>
+        <v>274900.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1191901.0</v>
+        <v>1387400.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2507500.0</v>
+        <v>2361300.0</v>
       </c>
       <c r="C42" t="n">
-        <v>368700.0</v>
+        <v>332700.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1268200.0</v>
+        <v>1867200.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2387800.0</v>
+        <v>2209000.0</v>
       </c>
       <c r="C43" t="n">
-        <v>283200.0</v>
+        <v>566900.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1644400.0</v>
+        <v>2497000.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2488499.0</v>
+        <v>3440600.0</v>
       </c>
       <c r="C44" t="n">
-        <v>283399.0</v>
+        <v>535300.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1255899.0</v>
+        <v>2181600.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2359500.0</v>
+        <v>2458100.0</v>
       </c>
       <c r="C45" t="n">
-        <v>287300.0</v>
+        <v>275200.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1118600.0</v>
+        <v>1628200.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2436100.0</v>
+        <v>2654500.0</v>
       </c>
       <c r="C46" t="n">
-        <v>452601.0</v>
+        <v>309000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1182601.0</v>
+        <v>1530700.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2559600.0</v>
+        <v>2192400.0</v>
       </c>
       <c r="C47" t="n">
-        <v>594600.0</v>
+        <v>309700.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1125900.0</v>
+        <v>1558500.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2424700.0</v>
+        <v>2277100.0</v>
       </c>
       <c r="C48" t="n">
-        <v>404401.0</v>
+        <v>273900.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1346800.0</v>
+        <v>1499900.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2634000.0</v>
+        <v>2939200.0</v>
       </c>
       <c r="C49" t="n">
-        <v>337000.0</v>
+        <v>336400.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1174000.0</v>
+        <v>2242900.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2616300.0</v>
+        <v>2614000.0</v>
       </c>
       <c r="C50" t="n">
-        <v>301299.0</v>
+        <v>276000.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1234799.0</v>
+        <v>1877900.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2649700.0</v>
+        <v>2231700.0</v>
       </c>
       <c r="C51" t="n">
-        <v>353000.0</v>
+        <v>349000.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1257701.0</v>
+        <v>1683900.0</v>
       </c>
       <c r="B52" t="n">
-        <v>2565200.0</v>
+        <v>2242100.0</v>
       </c>
       <c r="C52" t="n">
-        <v>297500.0</v>
+        <v>352800.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1149700.0</v>
+        <v>1363500.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2581400.0</v>
+        <v>2142000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>448801.0</v>
+        <v>318000.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1150000.0</v>
+        <v>1719000.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2559400.0</v>
+        <v>2181600.0</v>
       </c>
       <c r="C54" t="n">
-        <v>296601.0</v>
+        <v>350900.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1404800.0</v>
+        <v>2117900.0</v>
       </c>
       <c r="B55" t="n">
-        <v>2588701.0</v>
+        <v>2922200.0</v>
       </c>
       <c r="C55" t="n">
-        <v>293199.0</v>
+        <v>312200.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1234601.0</v>
+        <v>1414100.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2478299.0</v>
+        <v>2338600.0</v>
       </c>
       <c r="C56" t="n">
-        <v>341300.0</v>
+        <v>274000.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1203299.0</v>
+        <v>1395100.0</v>
       </c>
       <c r="B57" t="n">
-        <v>2664600.0</v>
+        <v>2906300.0</v>
       </c>
       <c r="C57" t="n">
-        <v>335900.0</v>
+        <v>399700.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1088299.0</v>
+        <v>1440800.0</v>
       </c>
       <c r="B58" t="n">
-        <v>2863400.0</v>
+        <v>2114000.0</v>
       </c>
       <c r="C58" t="n">
-        <v>351999.0</v>
+        <v>305100.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1268400.0</v>
+        <v>1469000.0</v>
       </c>
       <c r="B59" t="n">
-        <v>2684701.0</v>
+        <v>2255000.0</v>
       </c>
       <c r="C59" t="n">
-        <v>308000.0</v>
+        <v>316500.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1157600.0</v>
+        <v>1438500.0</v>
       </c>
       <c r="B60" t="n">
-        <v>2496099.0</v>
+        <v>2663400.0</v>
       </c>
       <c r="C60" t="n">
-        <v>353201.0</v>
+        <v>337200.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1234600.0</v>
+        <v>2172600.0</v>
       </c>
       <c r="B61" t="n">
-        <v>2393500.0</v>
+        <v>2257300.0</v>
       </c>
       <c r="C61" t="n">
-        <v>337800.0</v>
+        <v>342500.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1350800.0</v>
+        <v>1898600.0</v>
       </c>
       <c r="B62" t="n">
-        <v>2498000.0</v>
+        <v>2184800.0</v>
       </c>
       <c r="C62" t="n">
-        <v>298101.0</v>
+        <v>415800.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1192500.0</v>
+        <v>1760600.0</v>
       </c>
       <c r="B63" t="n">
-        <v>2419100.0</v>
+        <v>2257400.0</v>
       </c>
       <c r="C63" t="n">
-        <v>353900.0</v>
+        <v>275300.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1367499.0</v>
+        <v>1537600.0</v>
       </c>
       <c r="B64" t="n">
-        <v>2450700.0</v>
+        <v>2373200.0</v>
       </c>
       <c r="C64" t="n">
-        <v>289100.0</v>
+        <v>297200.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1167600.0</v>
+        <v>1728400.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2723800.0</v>
+        <v>2745300.0</v>
       </c>
       <c r="C65" t="n">
-        <v>312700.0</v>
+        <v>358300.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1334100.0</v>
+        <v>2111000.0</v>
       </c>
       <c r="B66" t="n">
-        <v>2544600.0</v>
+        <v>2944800.0</v>
       </c>
       <c r="C66" t="n">
-        <v>360100.0</v>
+        <v>316800.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1343201.0</v>
+        <v>2345900.0</v>
       </c>
       <c r="B67" t="n">
-        <v>2533500.0</v>
+        <v>2716800.0</v>
       </c>
       <c r="C67" t="n">
-        <v>356600.0</v>
+        <v>376500.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1142699.0</v>
+        <v>2381900.0</v>
       </c>
       <c r="B68" t="n">
-        <v>2610500.0</v>
+        <v>2958500.0</v>
       </c>
       <c r="C68" t="n">
-        <v>298300.0</v>
+        <v>313800.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1554300.0</v>
+        <v>1514700.0</v>
       </c>
       <c r="B69" t="n">
-        <v>2526000.0</v>
+        <v>2145700.0</v>
       </c>
       <c r="C69" t="n">
-        <v>295601.0</v>
+        <v>283200.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1968400.0</v>
+        <v>2495400.0</v>
       </c>
       <c r="B70" t="n">
-        <v>4625300.0</v>
+        <v>2134500.0</v>
       </c>
       <c r="C70" t="n">
-        <v>546799.0</v>
+        <v>336000.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1344900.0</v>
+        <v>1615700.0</v>
       </c>
       <c r="B71" t="n">
-        <v>2970200.0</v>
+        <v>2323200.0</v>
       </c>
       <c r="C71" t="n">
-        <v>575299.0</v>
+        <v>355700.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1224900.0</v>
+        <v>1547300.0</v>
       </c>
       <c r="B72" t="n">
-        <v>2390001.0</v>
+        <v>2269200.0</v>
       </c>
       <c r="C72" t="n">
-        <v>295300.0</v>
+        <v>335700.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1070600.0</v>
+        <v>1548100.0</v>
       </c>
       <c r="B73" t="n">
-        <v>2520500.0</v>
+        <v>2691400.0</v>
       </c>
       <c r="C73" t="n">
-        <v>326700.0</v>
+        <v>275000.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1335900.0</v>
+        <v>1489400.0</v>
       </c>
       <c r="B74" t="n">
-        <v>2505200.0</v>
+        <v>2269600.0</v>
       </c>
       <c r="C74" t="n">
-        <v>345299.0</v>
+        <v>264600.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1304800.0</v>
+        <v>1891300.0</v>
       </c>
       <c r="B75" t="n">
-        <v>2800200.0</v>
+        <v>2576600.0</v>
       </c>
       <c r="C75" t="n">
-        <v>342400.0</v>
+        <v>280400.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1201699.0</v>
+        <v>1513700.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2565301.0</v>
+        <v>2274200.0</v>
       </c>
       <c r="C76" t="n">
-        <v>302200.0</v>
+        <v>323600.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1280400.0</v>
+        <v>1541700.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2482500.0</v>
+        <v>2642100.0</v>
       </c>
       <c r="C77" t="n">
-        <v>295600.0</v>
+        <v>274600.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1274400.0</v>
+        <v>1532100.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2369400.0</v>
+        <v>2157300.0</v>
       </c>
       <c r="C78" t="n">
-        <v>428301.0</v>
+        <v>274500.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1234100.0</v>
+        <v>1549900.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2571400.0</v>
+        <v>2411000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>302701.0</v>
+        <v>364300.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1180401.0</v>
+        <v>2052300.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2584800.0</v>
+        <v>2275600.0</v>
       </c>
       <c r="C80" t="n">
-        <v>296599.0</v>
+        <v>335400.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1292100.0</v>
+        <v>1354400.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2565199.0</v>
+        <v>2191000.0</v>
       </c>
       <c r="C81" t="n">
-        <v>362701.0</v>
+        <v>467000.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1431400.0</v>
+        <v>1391500.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2691001.0</v>
+        <v>2058400.0</v>
       </c>
       <c r="C82" t="n">
-        <v>356300.0</v>
+        <v>429400.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1246300.0</v>
+        <v>1570200.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2401901.0</v>
+        <v>2245400.0</v>
       </c>
       <c r="C83" t="n">
-        <v>299600.0</v>
+        <v>276600.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1177901.0</v>
+        <v>1871800.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2406100.0</v>
+        <v>2332200.0</v>
       </c>
       <c r="C84" t="n">
-        <v>463300.0</v>
+        <v>275100.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1332200.0</v>
+        <v>1648000.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2618301.0</v>
+        <v>2509500.0</v>
       </c>
       <c r="C85" t="n">
-        <v>729100.0</v>
+        <v>276200.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1186601.0</v>
+        <v>1737400.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2528499.0</v>
+        <v>2258100.0</v>
       </c>
       <c r="C86" t="n">
-        <v>381600.0</v>
+        <v>273800.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1141101.0</v>
+        <v>5100400.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2521601.0</v>
+        <v>2301800.0</v>
       </c>
       <c r="C87" t="n">
-        <v>295500.0</v>
+        <v>298800.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1122500.0</v>
+        <v>1602300.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2457600.0</v>
+        <v>2717400.0</v>
       </c>
       <c r="C88" t="n">
-        <v>302801.0</v>
+        <v>276000.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1167200.0</v>
+        <v>1350100.0</v>
       </c>
       <c r="B89" t="n">
-        <v>3049800.0</v>
+        <v>2085100.0</v>
       </c>
       <c r="C89" t="n">
-        <v>290999.0</v>
+        <v>280600.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1175399.0</v>
+        <v>1893800.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2475400.0</v>
+        <v>2358500.0</v>
       </c>
       <c r="C90" t="n">
-        <v>325000.0</v>
+        <v>325900.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1161499.0</v>
+        <v>1649800.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2494801.0</v>
+        <v>2230400.0</v>
       </c>
       <c r="C91" t="n">
-        <v>291101.0</v>
+        <v>290300.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1123300.0</v>
+        <v>1625800.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2497899.0</v>
+        <v>2277000.0</v>
       </c>
       <c r="C92" t="n">
-        <v>372200.0</v>
+        <v>275200.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1722099.0</v>
+        <v>1498400.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2348100.0</v>
+        <v>2183300.0</v>
       </c>
       <c r="C93" t="n">
-        <v>296601.0</v>
+        <v>293200.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1120799.0</v>
+        <v>1531900.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2648900.0</v>
+        <v>2427000.0</v>
       </c>
       <c r="C94" t="n">
-        <v>283400.0</v>
+        <v>422400.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1326300.0</v>
+        <v>1630000.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2544501.0</v>
+        <v>2621400.0</v>
       </c>
       <c r="C95" t="n">
-        <v>298800.0</v>
+        <v>275300.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1253400.0</v>
+        <v>1500300.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2759000.0</v>
+        <v>2118700.0</v>
       </c>
       <c r="C96" t="n">
-        <v>333800.0</v>
+        <v>273200.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1270500.0</v>
+        <v>1806200.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2596100.0</v>
+        <v>2100800.0</v>
       </c>
       <c r="C97" t="n">
-        <v>299300.0</v>
+        <v>272700.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1234899.0</v>
+        <v>1459000.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2468299.0</v>
+        <v>2203300.0</v>
       </c>
       <c r="C98" t="n">
-        <v>410800.0</v>
+        <v>272400.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1138901.0</v>
+        <v>1562800.0</v>
       </c>
       <c r="B99" t="n">
-        <v>2873700.0</v>
+        <v>3002300.0</v>
       </c>
       <c r="C99" t="n">
-        <v>375100.0</v>
+        <v>276500.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1242100.0</v>
+        <v>1380600.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2632400.0</v>
+        <v>2468200.0</v>
       </c>
       <c r="C100" t="n">
-        <v>302100.0</v>
+        <v>369600.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1231099.0</v>
+        <v>1469000.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2495700.0</v>
+        <v>2106900.0</v>
       </c>
       <c r="C101" t="n">
-        <v>422200.0</v>
+        <v>272700.0</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5092,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5099,7 +5107,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>9356.0</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5120,1102 +5130,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2102101.0</v>
+        <v>4967900.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1880800.0</v>
+        <v>63000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>281699.0</v>
+        <v>244400.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2402899.0</v>
+        <v>4378600.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2037299.0</v>
+        <v>334800.0</v>
       </c>
       <c r="C3" t="n">
-        <v>400800.0</v>
+        <v>165300.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2287800.0</v>
+        <v>4626300.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2445400.0</v>
+        <v>82700.0</v>
       </c>
       <c r="C4" t="n">
-        <v>290900.0</v>
+        <v>170200.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2704499.0</v>
+        <v>4736000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1963300.0</v>
+        <v>211900.0</v>
       </c>
       <c r="C5" t="n">
-        <v>297499.0</v>
+        <v>173300.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2493299.0</v>
+        <v>4377900.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2013600.0</v>
+        <v>241900.0</v>
       </c>
       <c r="C6" t="n">
-        <v>288500.0</v>
+        <v>171100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2206400.0</v>
+        <v>4965800.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1995700.0</v>
+        <v>169500.0</v>
       </c>
       <c r="C7" t="n">
-        <v>278800.0</v>
+        <v>206600.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2369601.0</v>
+        <v>5574800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1978801.0</v>
+        <v>476000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>290200.0</v>
+        <v>235800.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2285500.0</v>
+        <v>5861700.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2108900.0</v>
+        <v>168600.0</v>
       </c>
       <c r="C9" t="n">
-        <v>288800.0</v>
+        <v>197100.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2265600.0</v>
+        <v>4199100.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2002400.0</v>
+        <v>226700.0</v>
       </c>
       <c r="C10" t="n">
-        <v>288901.0</v>
+        <v>263500.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2536301.0</v>
+        <v>4095400.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3608400.0</v>
+        <v>252600.0</v>
       </c>
       <c r="C11" t="n">
-        <v>381101.0</v>
+        <v>195600.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4432900.0</v>
+        <v>4167000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>3782099.0</v>
+        <v>288000.0</v>
       </c>
       <c r="C12" t="n">
-        <v>418799.0</v>
+        <v>289700.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2320101.0</v>
+        <v>4698500.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2858200.0</v>
+        <v>313900.0</v>
       </c>
       <c r="C13" t="n">
-        <v>494601.0</v>
+        <v>234500.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4393299.0</v>
+        <v>4418900.0</v>
       </c>
       <c r="B14" t="n">
-        <v>3985200.0</v>
+        <v>186500.0</v>
       </c>
       <c r="C14" t="n">
-        <v>591299.0</v>
+        <v>162400.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2539400.0</v>
+        <v>4539000.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1978099.0</v>
+        <v>232100.0</v>
       </c>
       <c r="C15" t="n">
-        <v>265300.0</v>
+        <v>164500.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2354700.0</v>
+        <v>4551100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2371499.0</v>
+        <v>291100.0</v>
       </c>
       <c r="C16" t="n">
-        <v>317800.0</v>
+        <v>166000.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2376500.0</v>
+        <v>4141700.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2021500.0</v>
+        <v>213400.0</v>
       </c>
       <c r="C17" t="n">
-        <v>302500.0</v>
+        <v>260700.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2522501.0</v>
+        <v>4745900.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2093200.0</v>
+        <v>213300.0</v>
       </c>
       <c r="C18" t="n">
-        <v>328200.0</v>
+        <v>164400.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2769400.0</v>
+        <v>4813800.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3662700.0</v>
+        <v>170600.0</v>
       </c>
       <c r="C19" t="n">
-        <v>459700.0</v>
+        <v>163600.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4610700.0</v>
+        <v>3868100.0</v>
       </c>
       <c r="B20" t="n">
-        <v>2288500.0</v>
+        <v>230300.0</v>
       </c>
       <c r="C20" t="n">
-        <v>311499.0</v>
+        <v>162900.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2621700.0</v>
+        <v>4574000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>2419800.0</v>
+        <v>327100.0</v>
       </c>
       <c r="C21" t="n">
-        <v>322499.0</v>
+        <v>162500.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2655601.0</v>
+        <v>4586400.0</v>
       </c>
       <c r="B22" t="n">
-        <v>2148700.0</v>
+        <v>343800.0</v>
       </c>
       <c r="C22" t="n">
-        <v>318100.0</v>
+        <v>241800.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4544500.0</v>
+        <v>4238000.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2567699.0</v>
+        <v>254500.0</v>
       </c>
       <c r="C23" t="n">
-        <v>330901.0</v>
+        <v>201200.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2462801.0</v>
+        <v>4426200.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2045100.0</v>
+        <v>223700.0</v>
       </c>
       <c r="C24" t="n">
-        <v>282700.0</v>
+        <v>167800.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2235000.0</v>
+        <v>4889200.0</v>
       </c>
       <c r="B25" t="n">
-        <v>2063400.0</v>
+        <v>213400.0</v>
       </c>
       <c r="C25" t="n">
-        <v>273800.0</v>
+        <v>247200.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2270599.0</v>
+        <v>4145200.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1957101.0</v>
+        <v>340700.0</v>
       </c>
       <c r="C26" t="n">
-        <v>280901.0</v>
+        <v>167300.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2284000.0</v>
+        <v>5286200.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2119900.0</v>
+        <v>220300.0</v>
       </c>
       <c r="C27" t="n">
-        <v>273899.0</v>
+        <v>212200.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2313601.0</v>
+        <v>5000100.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2035899.0</v>
+        <v>269000.0</v>
       </c>
       <c r="C28" t="n">
-        <v>282300.0</v>
+        <v>169300.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2252700.0</v>
+        <v>5138200.0</v>
       </c>
       <c r="B29" t="n">
-        <v>2019501.0</v>
+        <v>151600.0</v>
       </c>
       <c r="C29" t="n">
-        <v>264000.0</v>
+        <v>207500.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2143000.0</v>
+        <v>5198100.0</v>
       </c>
       <c r="B30" t="n">
-        <v>2402901.0</v>
+        <v>323300.0</v>
       </c>
       <c r="C30" t="n">
-        <v>329900.0</v>
+        <v>184200.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2504700.0</v>
+        <v>5788700.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2108000.0</v>
+        <v>232100.0</v>
       </c>
       <c r="C31" t="n">
-        <v>266600.0</v>
+        <v>205500.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2335400.0</v>
+        <v>7462300.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2000699.0</v>
+        <v>329900.0</v>
       </c>
       <c r="C32" t="n">
-        <v>333599.0</v>
+        <v>219200.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2916300.0</v>
+        <v>5895300.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2403501.0</v>
+        <v>335200.0</v>
       </c>
       <c r="C33" t="n">
-        <v>389600.0</v>
+        <v>316500.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2228000.0</v>
+        <v>5313100.0</v>
       </c>
       <c r="B34" t="n">
-        <v>2313199.0</v>
+        <v>193900.0</v>
       </c>
       <c r="C34" t="n">
-        <v>344000.0</v>
+        <v>167000.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2303599.0</v>
+        <v>5571700.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1993200.0</v>
+        <v>235500.0</v>
       </c>
       <c r="C35" t="n">
-        <v>270501.0</v>
+        <v>164800.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2161300.0</v>
+        <v>5334200.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2437299.0</v>
+        <v>179700.0</v>
       </c>
       <c r="C36" t="n">
-        <v>266900.0</v>
+        <v>185500.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2191101.0</v>
+        <v>4704100.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2169500.0</v>
+        <v>289600.0</v>
       </c>
       <c r="C37" t="n">
-        <v>273001.0</v>
+        <v>180100.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2139201.0</v>
+        <v>4864700.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2030000.0</v>
+        <v>286800.0</v>
       </c>
       <c r="C38" t="n">
-        <v>324900.0</v>
+        <v>164100.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2227800.0</v>
+        <v>5728600.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2041000.0</v>
+        <v>349300.0</v>
       </c>
       <c r="C39" t="n">
-        <v>362399.0</v>
+        <v>168600.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2550999.0</v>
+        <v>5669700.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2157100.0</v>
+        <v>517300.0</v>
       </c>
       <c r="C40" t="n">
-        <v>372900.0</v>
+        <v>289600.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2173700.0</v>
+        <v>4914400.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2084500.0</v>
+        <v>393400.0</v>
       </c>
       <c r="C41" t="n">
-        <v>319100.0</v>
+        <v>204800.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2127600.0</v>
+        <v>5210800.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2096500.0</v>
+        <v>140900.0</v>
       </c>
       <c r="C42" t="n">
-        <v>398600.0</v>
+        <v>164400.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2389200.0</v>
+        <v>6768200.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1934201.0</v>
+        <v>205200.0</v>
       </c>
       <c r="C43" t="n">
-        <v>274700.0</v>
+        <v>161600.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3116300.0</v>
+        <v>4259600.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2026100.0</v>
+        <v>213000.0</v>
       </c>
       <c r="C44" t="n">
-        <v>287399.0</v>
+        <v>161800.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2529100.0</v>
+        <v>5849800.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2045601.0</v>
+        <v>259300.0</v>
       </c>
       <c r="C45" t="n">
-        <v>280000.0</v>
+        <v>162500.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3203900.0</v>
+        <v>4824800.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2075000.0</v>
+        <v>214000.0</v>
       </c>
       <c r="C46" t="n">
-        <v>269200.0</v>
+        <v>163800.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2230900.0</v>
+        <v>4118900.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2059701.0</v>
+        <v>214100.0</v>
       </c>
       <c r="C47" t="n">
-        <v>533400.0</v>
+        <v>178800.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3810300.0</v>
+        <v>4972600.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3076500.0</v>
+        <v>213100.0</v>
       </c>
       <c r="C48" t="n">
-        <v>349300.0</v>
+        <v>163800.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3776401.0</v>
+        <v>4384600.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2805900.0</v>
+        <v>243000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>324700.0</v>
+        <v>159600.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3407100.0</v>
+        <v>4727700.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2719401.0</v>
+        <v>229900.0</v>
       </c>
       <c r="C50" t="n">
-        <v>281400.0</v>
+        <v>162600.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2452101.0</v>
+        <v>4318000.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2098901.0</v>
+        <v>212800.0</v>
       </c>
       <c r="C51" t="n">
-        <v>323000.0</v>
+        <v>161500.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2589801.0</v>
+        <v>4545200.0</v>
       </c>
       <c r="B52" t="n">
-        <v>2902701.0</v>
+        <v>221400.0</v>
       </c>
       <c r="C52" t="n">
-        <v>386901.0</v>
+        <v>161300.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2264999.0</v>
+        <v>4763200.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2363600.0</v>
+        <v>384200.0</v>
       </c>
       <c r="C53" t="n">
-        <v>386900.0</v>
+        <v>247400.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2538199.0</v>
+        <v>4330500.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2116200.0</v>
+        <v>176800.0</v>
       </c>
       <c r="C54" t="n">
-        <v>258301.0</v>
+        <v>216200.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2212299.0</v>
+        <v>4542600.0</v>
       </c>
       <c r="B55" t="n">
-        <v>2119400.0</v>
+        <v>212800.0</v>
       </c>
       <c r="C55" t="n">
-        <v>262800.0</v>
+        <v>160400.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2211700.0</v>
+        <v>4470700.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2120500.0</v>
+        <v>205600.0</v>
       </c>
       <c r="C56" t="n">
-        <v>331200.0</v>
+        <v>163900.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2254299.0</v>
+        <v>4704500.0</v>
       </c>
       <c r="B57" t="n">
-        <v>2100601.0</v>
+        <v>205200.0</v>
       </c>
       <c r="C57" t="n">
-        <v>368199.0</v>
+        <v>161000.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2153800.0</v>
+        <v>4151200.0</v>
       </c>
       <c r="B58" t="n">
-        <v>2041799.0</v>
+        <v>219600.0</v>
       </c>
       <c r="C58" t="n">
-        <v>383100.0</v>
+        <v>161300.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2256599.0</v>
+        <v>4623500.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1992399.0</v>
+        <v>169000.0</v>
       </c>
       <c r="C59" t="n">
-        <v>344100.0</v>
+        <v>160300.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2707199.0</v>
+        <v>4571900.0</v>
       </c>
       <c r="B60" t="n">
-        <v>2021301.0</v>
+        <v>316700.0</v>
       </c>
       <c r="C60" t="n">
-        <v>260900.0</v>
+        <v>164500.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2186501.0</v>
+        <v>4025400.0</v>
       </c>
       <c r="B61" t="n">
-        <v>2050200.0</v>
+        <v>204900.0</v>
       </c>
       <c r="C61" t="n">
-        <v>261500.0</v>
+        <v>213000.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2269500.0</v>
+        <v>4304600.0</v>
       </c>
       <c r="B62" t="n">
-        <v>2021700.0</v>
+        <v>205000.0</v>
       </c>
       <c r="C62" t="n">
-        <v>258400.0</v>
+        <v>161000.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2693700.0</v>
+        <v>4749400.0</v>
       </c>
       <c r="B63" t="n">
-        <v>2438701.0</v>
+        <v>187200.0</v>
       </c>
       <c r="C63" t="n">
-        <v>361799.0</v>
+        <v>237100.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2197600.0</v>
+        <v>4143200.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1966801.0</v>
+        <v>195300.0</v>
       </c>
       <c r="C64" t="n">
-        <v>259200.0</v>
+        <v>181900.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2408100.0</v>
+        <v>4506300.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2044200.0</v>
+        <v>212800.0</v>
       </c>
       <c r="C65" t="n">
-        <v>377800.0</v>
+        <v>162300.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2503100.0</v>
+        <v>4468300.0</v>
       </c>
       <c r="B66" t="n">
-        <v>2084500.0</v>
+        <v>330800.0</v>
       </c>
       <c r="C66" t="n">
-        <v>262101.0</v>
+        <v>162400.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2532800.0</v>
+        <v>4142300.0</v>
       </c>
       <c r="B67" t="n">
-        <v>2009000.0</v>
+        <v>242000.0</v>
       </c>
       <c r="C67" t="n">
-        <v>264299.0</v>
+        <v>162500.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2205300.0</v>
+        <v>5220500.0</v>
       </c>
       <c r="B68" t="n">
-        <v>2024899.0</v>
+        <v>186900.0</v>
       </c>
       <c r="C68" t="n">
-        <v>272899.0</v>
+        <v>164900.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2484900.0</v>
+        <v>4134800.0</v>
       </c>
       <c r="B69" t="n">
-        <v>2964600.0</v>
+        <v>187500.0</v>
       </c>
       <c r="C69" t="n">
-        <v>383801.0</v>
+        <v>410300.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2161600.0</v>
+        <v>4404100.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1917001.0</v>
+        <v>303000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>369300.0</v>
+        <v>161200.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2201399.0</v>
+        <v>4495000.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1997500.0</v>
+        <v>241500.0</v>
       </c>
       <c r="C71" t="n">
-        <v>264899.0</v>
+        <v>162000.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2145000.0</v>
+        <v>4766400.0</v>
       </c>
       <c r="B72" t="n">
-        <v>2180800.0</v>
+        <v>191200.0</v>
       </c>
       <c r="C72" t="n">
-        <v>273500.0</v>
+        <v>162200.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2135901.0</v>
+        <v>4563500.0</v>
       </c>
       <c r="B73" t="n">
-        <v>2111700.0</v>
+        <v>231100.0</v>
       </c>
       <c r="C73" t="n">
-        <v>259600.0</v>
+        <v>162300.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2322201.0</v>
+        <v>4462900.0</v>
       </c>
       <c r="B74" t="n">
-        <v>2103900.0</v>
+        <v>186800.0</v>
       </c>
       <c r="C74" t="n">
-        <v>303199.0</v>
+        <v>167700.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2218500.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1881000.0</v>
+        <v>287600.0</v>
       </c>
       <c r="C75" t="n">
-        <v>389800.0</v>
+        <v>216900.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2642400.0</v>
+        <v>4068800.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2106500.0</v>
+        <v>213000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>263200.0</v>
+        <v>160400.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2196800.0</v>
+        <v>4407900.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2036800.0</v>
+        <v>223000.0</v>
       </c>
       <c r="C77" t="n">
-        <v>259699.0</v>
+        <v>164000.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2052799.0</v>
+        <v>4240000.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2023000.0</v>
+        <v>365500.0</v>
       </c>
       <c r="C78" t="n">
-        <v>264101.0</v>
+        <v>211700.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2587300.0</v>
+        <v>4039500.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2037099.0</v>
+        <v>195100.0</v>
       </c>
       <c r="C79" t="n">
-        <v>453000.0</v>
+        <v>160500.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2226000.0</v>
+        <v>4542800.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1968099.0</v>
+        <v>223100.0</v>
       </c>
       <c r="C80" t="n">
-        <v>382000.0</v>
+        <v>160500.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2132900.0</v>
+        <v>4411400.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2071299.0</v>
+        <v>191600.0</v>
       </c>
       <c r="C81" t="n">
-        <v>405001.0</v>
+        <v>158400.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2493901.0</v>
+        <v>5774000.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2439900.0</v>
+        <v>176900.0</v>
       </c>
       <c r="C82" t="n">
-        <v>268000.0</v>
+        <v>302900.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2287699.0</v>
+        <v>4316700.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2024000.0</v>
+        <v>328200.0</v>
       </c>
       <c r="C83" t="n">
-        <v>338000.0</v>
+        <v>204000.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2084900.0</v>
+        <v>4655100.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3202299.0</v>
+        <v>242000.0</v>
       </c>
       <c r="C84" t="n">
-        <v>459200.0</v>
+        <v>352200.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2855401.0</v>
+        <v>4242400.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2324199.0</v>
+        <v>195100.0</v>
       </c>
       <c r="C85" t="n">
-        <v>264400.0</v>
+        <v>162800.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2466801.0</v>
+        <v>4692900.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1980500.0</v>
+        <v>195000.0</v>
       </c>
       <c r="C86" t="n">
-        <v>262400.0</v>
+        <v>168000.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2181201.0</v>
+        <v>4930200.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1995900.0</v>
+        <v>187500.0</v>
       </c>
       <c r="C87" t="n">
-        <v>267900.0</v>
+        <v>161300.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2331601.0</v>
+        <v>4351900.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2230200.0</v>
+        <v>168800.0</v>
       </c>
       <c r="C88" t="n">
-        <v>371099.0</v>
+        <v>163800.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2312100.0</v>
+        <v>4355300.0</v>
       </c>
       <c r="B89" t="n">
-        <v>1953200.0</v>
+        <v>177000.0</v>
       </c>
       <c r="C89" t="n">
-        <v>328700.0</v>
+        <v>276700.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2094000.0</v>
+        <v>4612900.0</v>
       </c>
       <c r="B90" t="n">
-        <v>1964900.0</v>
+        <v>210000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>256300.0</v>
+        <v>163300.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2260000.0</v>
+        <v>4587300.0</v>
       </c>
       <c r="B91" t="n">
-        <v>2459801.0</v>
+        <v>231100.0</v>
       </c>
       <c r="C91" t="n">
-        <v>281001.0</v>
+        <v>161300.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2230600.0</v>
+        <v>4375300.0</v>
       </c>
       <c r="B92" t="n">
-        <v>2003001.0</v>
+        <v>247400.0</v>
       </c>
       <c r="C92" t="n">
-        <v>256199.0</v>
+        <v>202800.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2198700.0</v>
+        <v>4701700.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2406199.0</v>
+        <v>187300.0</v>
       </c>
       <c r="C93" t="n">
-        <v>378800.0</v>
+        <v>159800.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2492500.0</v>
+        <v>4360800.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2274700.0</v>
+        <v>169300.0</v>
       </c>
       <c r="C94" t="n">
-        <v>262999.0</v>
+        <v>160700.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2244299.0</v>
+        <v>4371600.0</v>
       </c>
       <c r="B95" t="n">
-        <v>2069799.0</v>
+        <v>213100.0</v>
       </c>
       <c r="C95" t="n">
-        <v>328301.0</v>
+        <v>157100.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2227000.0</v>
+        <v>4851100.0</v>
       </c>
       <c r="B96" t="n">
-        <v>2057900.0</v>
+        <v>169000.0</v>
       </c>
       <c r="C96" t="n">
-        <v>402701.0</v>
+        <v>160400.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2465600.0</v>
+        <v>4660800.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2126900.0</v>
+        <v>235300.0</v>
       </c>
       <c r="C97" t="n">
-        <v>390499.0</v>
+        <v>158900.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2357901.0</v>
+        <v>4924700.0</v>
       </c>
       <c r="B98" t="n">
-        <v>2023800.0</v>
+        <v>230000.0</v>
       </c>
       <c r="C98" t="n">
-        <v>258699.0</v>
+        <v>180200.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2519300.0</v>
+        <v>4500300.0</v>
       </c>
       <c r="B99" t="n">
-        <v>2035200.0</v>
+        <v>238200.0</v>
       </c>
       <c r="C99" t="n">
-        <v>328900.0</v>
+        <v>160900.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2253401.0</v>
+        <v>4745600.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1874800.0</v>
+        <v>177700.0</v>
       </c>
       <c r="C100" t="n">
-        <v>269000.0</v>
+        <v>164300.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2213000.0</v>
+        <v>4205000.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2002700.0</v>
+        <v>194700.0</v>
       </c>
       <c r="C101" t="n">
-        <v>259000.0</v>
+        <v>160500.0</v>
       </c>
     </row>
   </sheetData>

--- a/Time_10000.xlsx
+++ b/Time_10000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ASD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1452F2E-E07C-4D4A-AE2E-BC3AD4C27572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194768D-6068-4EDF-B713-8FDA07058EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -503,1127 +503,1116 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1">
-        <f>MEDIAN(A2:A102)</f>
-        <v>11100</v>
+        <f>MEDIAN(A2:A101)</f>
+        <v>13950</v>
       </c>
       <c r="I1">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>108800</v>
+        <f>MEDIAN(B2:B101)</f>
+        <v>803.5</v>
       </c>
       <c r="J1">
-        <f t="shared" si="0"/>
-        <v>452900</v>
+        <f>MEDIAN(C2:C101)</f>
+        <v>3900</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23200</v>
+        <v>1031200</v>
       </c>
       <c r="B2">
-        <v>414400</v>
+        <v>499500</v>
       </c>
       <c r="C2">
-        <v>362800</v>
+        <v>512000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11999</v>
+        <v>16200</v>
       </c>
       <c r="B3">
-        <v>12300</v>
+        <v>6500</v>
       </c>
       <c r="C3">
-        <v>10300</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14100</v>
+        <v>17800</v>
       </c>
       <c r="B4">
-        <v>4166</v>
+        <v>5350</v>
       </c>
       <c r="C4">
-        <v>11099</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13400</v>
+        <v>18700</v>
       </c>
       <c r="B5">
-        <v>6150</v>
+        <v>5550</v>
       </c>
       <c r="C5">
-        <v>8150</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10300</v>
+        <v>18500</v>
       </c>
       <c r="B6">
-        <v>2574</v>
+        <v>5150</v>
       </c>
       <c r="C6">
-        <v>5700</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13499</v>
+        <v>57700</v>
       </c>
       <c r="B7">
-        <v>13100</v>
+        <v>2975</v>
       </c>
       <c r="C7">
-        <v>7850</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12101</v>
+        <v>26500</v>
       </c>
       <c r="B8">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="C8">
-        <v>8500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11500</v>
+        <v>18400</v>
       </c>
       <c r="B9">
-        <v>5300</v>
+        <v>5366</v>
       </c>
       <c r="C9">
-        <v>7600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14600</v>
+        <v>22700</v>
       </c>
       <c r="B10">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="C10">
-        <v>7850</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12300</v>
+        <v>18000</v>
       </c>
       <c r="B11">
-        <v>3900</v>
+        <v>5650</v>
       </c>
       <c r="C11">
-        <v>15900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8150</v>
+        <v>18100</v>
       </c>
       <c r="B12">
-        <v>5900</v>
+        <v>6850</v>
       </c>
       <c r="C12">
-        <v>7750</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7700</v>
+        <v>18600</v>
       </c>
       <c r="B13">
-        <v>4367</v>
+        <v>5250</v>
       </c>
       <c r="C13">
-        <v>10200</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10500</v>
+        <v>20700</v>
       </c>
       <c r="B14">
-        <v>4400</v>
+        <v>13600</v>
       </c>
       <c r="C14">
-        <v>6050</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8400</v>
+        <v>17300</v>
       </c>
       <c r="B15">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="C15">
-        <v>6600</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8450</v>
+        <v>21500</v>
       </c>
       <c r="B16">
-        <v>4400</v>
+        <v>13900</v>
       </c>
       <c r="C16">
-        <v>5850</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7750</v>
+        <v>18200</v>
       </c>
       <c r="B17">
-        <v>4433</v>
+        <v>4366</v>
       </c>
       <c r="C17">
-        <v>6600</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11400</v>
+        <v>15500</v>
       </c>
       <c r="B18">
-        <v>3966</v>
+        <v>4533</v>
       </c>
       <c r="C18">
-        <v>6950</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>27201</v>
+        <v>25300</v>
       </c>
       <c r="B19">
-        <v>3533</v>
+        <v>4133</v>
       </c>
       <c r="C19">
-        <v>6250</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11201</v>
+        <v>16500</v>
       </c>
       <c r="B20">
-        <v>4599</v>
+        <v>15000</v>
       </c>
       <c r="C20">
-        <v>6099</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9150</v>
+        <v>24100</v>
       </c>
       <c r="B21">
-        <v>5600</v>
+        <v>1585</v>
       </c>
       <c r="C21">
-        <v>6199</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13700</v>
+        <v>11300</v>
       </c>
       <c r="B22">
-        <v>13700</v>
+        <v>472</v>
       </c>
       <c r="C22">
-        <v>9749</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13200</v>
+        <v>14500</v>
       </c>
       <c r="B23">
-        <v>13900</v>
+        <v>800</v>
       </c>
       <c r="C23">
-        <v>13401</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11800</v>
+        <v>16900</v>
       </c>
       <c r="B24">
-        <v>10899</v>
+        <v>1144</v>
       </c>
       <c r="C24">
-        <v>9500</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11401</v>
+        <v>18600</v>
       </c>
       <c r="B25">
-        <v>2599</v>
+        <v>875</v>
       </c>
       <c r="C25">
-        <v>3933</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11800</v>
+        <v>19000</v>
       </c>
       <c r="B26">
-        <v>3966</v>
+        <v>1110</v>
       </c>
       <c r="C26">
-        <v>8000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11999</v>
+        <v>30900</v>
       </c>
       <c r="B27">
-        <v>4433</v>
+        <v>792</v>
       </c>
       <c r="C27">
-        <v>6550</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10299</v>
+        <v>16300</v>
       </c>
       <c r="B28">
-        <v>11700</v>
+        <v>1060</v>
       </c>
       <c r="C28">
-        <v>7550</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11801</v>
+        <v>16000</v>
       </c>
       <c r="B29">
-        <v>5050</v>
+        <v>1627</v>
       </c>
       <c r="C29">
-        <v>6300</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11299</v>
+        <v>16900</v>
       </c>
       <c r="B30">
-        <v>5250</v>
+        <v>858</v>
       </c>
       <c r="C30">
-        <v>11000</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11101</v>
+        <v>18100</v>
       </c>
       <c r="B31">
-        <v>14300</v>
+        <v>981</v>
       </c>
       <c r="C31">
-        <v>6650</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10999</v>
+        <v>15800</v>
       </c>
       <c r="B32">
-        <v>31800</v>
+        <v>875</v>
       </c>
       <c r="C32">
-        <v>12900</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13200</v>
+        <v>15500</v>
       </c>
       <c r="B33">
-        <v>5600</v>
+        <v>807</v>
       </c>
       <c r="C33">
-        <v>6350</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10300</v>
+        <v>19200</v>
       </c>
       <c r="B34">
-        <v>9600</v>
+        <v>757</v>
       </c>
       <c r="C34">
-        <v>6950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13600</v>
+        <v>15300</v>
       </c>
       <c r="B35">
-        <v>4400</v>
+        <v>963</v>
       </c>
       <c r="C35">
-        <v>5749</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11199</v>
+        <v>17700</v>
       </c>
       <c r="B36">
-        <v>67199</v>
+        <v>925</v>
       </c>
       <c r="C36">
-        <v>20601</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11100</v>
+        <v>15200</v>
       </c>
       <c r="B37">
-        <v>3833</v>
+        <v>735</v>
       </c>
       <c r="C37">
-        <v>5700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12200</v>
+        <v>16200</v>
       </c>
       <c r="B38">
-        <v>3500</v>
+        <v>1102855</v>
       </c>
       <c r="C38">
-        <v>5350</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>27299</v>
+        <v>15700</v>
       </c>
       <c r="B39">
-        <v>8650</v>
+        <v>650</v>
       </c>
       <c r="C39">
-        <v>11600</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13700</v>
+        <v>15300</v>
       </c>
       <c r="B40">
-        <v>26700</v>
+        <v>605</v>
       </c>
       <c r="C40">
-        <v>7050</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11800</v>
+        <v>13100</v>
       </c>
       <c r="B41">
-        <v>3700</v>
+        <v>611</v>
       </c>
       <c r="C41">
-        <v>5150</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11900</v>
+        <v>15100</v>
       </c>
       <c r="B42">
-        <v>1966</v>
+        <v>850</v>
       </c>
       <c r="C42">
-        <v>6100</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10800</v>
+        <v>14600</v>
       </c>
       <c r="B43">
-        <v>858</v>
+        <v>954</v>
       </c>
       <c r="C43">
-        <v>4200</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>11200</v>
+        <v>15400</v>
       </c>
       <c r="B44">
-        <v>807</v>
+        <v>2042</v>
       </c>
       <c r="C44">
-        <v>15100</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12501</v>
+        <v>14100</v>
       </c>
       <c r="B45">
-        <v>605</v>
+        <v>742</v>
       </c>
       <c r="C45">
-        <v>5350</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>11100</v>
+        <v>14100</v>
       </c>
       <c r="B46">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="C46">
-        <v>19801</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="B47">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="C47">
-        <v>2300</v>
+        <v>16550</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16300</v>
+        <v>24900</v>
       </c>
       <c r="B48">
-        <v>1030</v>
+        <v>838</v>
       </c>
       <c r="C48">
-        <v>10500</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11200</v>
+        <v>12700</v>
       </c>
       <c r="B49">
-        <v>2526200</v>
+        <v>1080</v>
       </c>
       <c r="C49">
-        <v>1350</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>13000</v>
+      </c>
+      <c r="B50">
+        <v>792</v>
+      </c>
+      <c r="C50">
         <v>17700</v>
-      </c>
-      <c r="B50">
-        <v>1177</v>
-      </c>
-      <c r="C50">
-        <v>2574</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>11700</v>
+        <v>15700</v>
       </c>
       <c r="B51">
-        <v>561</v>
+        <v>728</v>
       </c>
       <c r="C51">
-        <v>1833</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="B52">
-        <v>713</v>
+        <v>945</v>
       </c>
       <c r="C52">
-        <v>2120</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12101</v>
+        <v>35800</v>
       </c>
       <c r="B53">
-        <v>588</v>
+        <v>750</v>
       </c>
       <c r="C53">
-        <v>2080</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6800</v>
+        <v>11600</v>
       </c>
       <c r="B54">
-        <v>485</v>
+        <v>726</v>
       </c>
       <c r="C54">
-        <v>1189</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9199</v>
+        <v>11800</v>
       </c>
       <c r="B55">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="C55">
-        <v>3500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="B56">
-        <v>849</v>
+        <v>643</v>
       </c>
       <c r="C56">
-        <v>2200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>23300</v>
+        <v>11700</v>
       </c>
       <c r="B57">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="C57">
-        <v>3566</v>
+        <v>48300</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="B58">
-        <v>1080</v>
+        <v>617</v>
       </c>
       <c r="C58">
-        <v>2120</v>
+        <v>77333</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10699</v>
+        <v>12700</v>
       </c>
       <c r="B59">
-        <v>858</v>
+        <v>1007</v>
       </c>
       <c r="C59">
-        <v>6150</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="B60">
-        <v>536</v>
+        <v>757</v>
       </c>
       <c r="C60">
-        <v>2740</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="B61">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="C61">
-        <v>2039</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12000</v>
+        <v>10900</v>
       </c>
       <c r="B62">
-        <v>742</v>
+        <v>1040</v>
       </c>
       <c r="C62">
-        <v>2180</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13101</v>
+        <v>10800</v>
       </c>
       <c r="B63">
-        <v>662</v>
+        <v>800</v>
       </c>
       <c r="C63">
-        <v>1039</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14800</v>
+        <v>10900</v>
       </c>
       <c r="B64">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C64">
-        <v>1188</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>11699</v>
+        <v>7700</v>
       </c>
       <c r="B65">
-        <v>963</v>
+        <v>605</v>
       </c>
       <c r="C65">
-        <v>1275</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>12199</v>
+        <v>7800</v>
       </c>
       <c r="B66">
-        <v>650</v>
+        <v>1147</v>
       </c>
       <c r="C66">
-        <v>927</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13500</v>
+        <v>7450</v>
       </c>
       <c r="B67">
-        <v>6580</v>
+        <v>594</v>
       </c>
       <c r="C67">
-        <v>1144</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>15400</v>
+        <v>7500</v>
       </c>
       <c r="B68">
-        <v>1045</v>
+        <v>588</v>
       </c>
       <c r="C68">
-        <v>1211</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14900</v>
+        <v>7850</v>
       </c>
       <c r="B69">
-        <v>1020</v>
+        <v>583</v>
       </c>
       <c r="C69">
-        <v>1528</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12301</v>
+        <v>7650</v>
       </c>
       <c r="B70">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="C70">
-        <v>1040</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>12200</v>
+        <v>13800</v>
       </c>
       <c r="B71">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="C71">
-        <v>1177</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7850</v>
+        <v>15200</v>
       </c>
       <c r="B72">
-        <v>623</v>
+        <v>757</v>
       </c>
       <c r="C72">
-        <v>954</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="B73">
-        <v>721</v>
+        <v>945</v>
       </c>
       <c r="C73">
-        <v>1089</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10999</v>
+        <v>13700</v>
       </c>
       <c r="B74">
-        <v>700</v>
+        <v>1350</v>
       </c>
       <c r="C74">
-        <v>1177</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7600</v>
+        <v>14100</v>
       </c>
       <c r="B75">
-        <v>623</v>
+        <v>815</v>
       </c>
       <c r="C75">
-        <v>900</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10700</v>
+        <v>11900</v>
       </c>
       <c r="B76">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="C76">
-        <v>1542</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="B77">
-        <v>1645</v>
+        <v>680</v>
       </c>
       <c r="C77">
-        <v>954</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10899</v>
+        <v>5700</v>
       </c>
       <c r="B78">
-        <v>706</v>
+        <v>456</v>
       </c>
       <c r="C78">
-        <v>849</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11100</v>
+        <v>3633</v>
       </c>
       <c r="B79">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="C79">
-        <v>936</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10500</v>
+        <v>5100</v>
       </c>
       <c r="B80">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C80">
-        <v>1030</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="B81">
-        <v>693</v>
+        <v>433</v>
       </c>
       <c r="C81">
-        <v>1133</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>12499</v>
+        <v>10400</v>
       </c>
       <c r="B82">
-        <v>784</v>
+        <v>945</v>
       </c>
       <c r="C82">
-        <v>1424</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>12899</v>
+        <v>7200</v>
       </c>
       <c r="B83">
-        <v>728</v>
+        <v>883</v>
       </c>
       <c r="C83">
-        <v>1040</v>
+        <v>963</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13800</v>
+        <v>7650</v>
       </c>
       <c r="B84">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="C84">
-        <v>1166</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16800</v>
+        <v>7850</v>
       </c>
       <c r="B85">
-        <v>764</v>
+        <v>12700</v>
       </c>
       <c r="C85">
-        <v>1275</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>11399</v>
+        <v>10700</v>
       </c>
       <c r="B86">
-        <v>899</v>
+        <v>392</v>
       </c>
       <c r="C86">
-        <v>1020</v>
+        <v>927</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>7650</v>
+        <v>7150</v>
       </c>
       <c r="B87">
-        <v>693</v>
+        <v>329</v>
       </c>
       <c r="C87">
-        <v>1039</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="B88">
-        <v>566</v>
+        <v>325</v>
       </c>
       <c r="C88">
-        <v>883</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12000</v>
+        <v>6150</v>
       </c>
       <c r="B89">
-        <v>784</v>
+        <v>318</v>
       </c>
       <c r="C89">
-        <v>954</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5950</v>
+        <v>5400</v>
       </c>
       <c r="B90">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C90">
-        <v>504</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5649</v>
+        <v>3633</v>
       </c>
       <c r="B91">
-        <v>2200</v>
+        <v>268</v>
       </c>
       <c r="C91">
-        <v>1019</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>11401</v>
+        <v>2950</v>
       </c>
       <c r="B92">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="C92">
-        <v>981</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10501</v>
+        <v>3566</v>
       </c>
       <c r="B93">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="C93">
-        <v>1155</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6299</v>
+        <v>3533</v>
       </c>
       <c r="B94">
-        <v>415</v>
+        <v>206</v>
       </c>
       <c r="C94">
-        <v>815</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>11700</v>
+        <v>2975</v>
       </c>
       <c r="B95">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="C95">
-        <v>1166</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6800</v>
+        <v>4000</v>
       </c>
       <c r="B96">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="C96">
-        <v>1079</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6999</v>
+        <v>16100</v>
       </c>
       <c r="B97">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="C97">
-        <v>850</v>
+        <v>954</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6099</v>
+        <v>6250</v>
       </c>
       <c r="B98">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C98">
-        <v>617</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="B99">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C99">
-        <v>1133</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>18599</v>
+        <v>6050</v>
       </c>
       <c r="B100">
-        <v>1277</v>
+        <v>385</v>
       </c>
       <c r="C100">
-        <v>875</v>
+        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6150</v>
+        <v>6200</v>
       </c>
       <c r="B101">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C101">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>425300</v>
-      </c>
-      <c r="B102">
-        <v>251800</v>
-      </c>
-      <c r="C102">
-        <v>234400</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1632,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,1124 +1648,1124 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A2:A101)</f>
+        <v>13600</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>106</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>25201</v>
+        <v>36500</v>
       </c>
       <c r="B2">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>1571</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12801</v>
+        <v>19200</v>
       </c>
       <c r="B3">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>900</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12400</v>
+        <v>19000</v>
       </c>
       <c r="B4">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="C4">
-        <v>1059</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40299</v>
+        <v>17500</v>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>849</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11699</v>
+        <v>26000</v>
       </c>
       <c r="B6">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="C6">
-        <v>838</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>38800</v>
+        <v>27600</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>1080</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14500</v>
+        <v>21700</v>
       </c>
       <c r="B8">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C8">
-        <v>1050</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18600</v>
+        <v>32000</v>
       </c>
       <c r="B9">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="C9">
-        <v>900</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6100</v>
+        <v>29800</v>
       </c>
       <c r="B10">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>990</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6900</v>
+        <v>20100</v>
       </c>
       <c r="B11">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>972</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10900</v>
+        <v>17900</v>
       </c>
       <c r="B12">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>981</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10200</v>
+        <v>16800</v>
       </c>
       <c r="B13">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="C13">
-        <v>1054</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6500</v>
+        <v>16800</v>
       </c>
       <c r="B14">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>777</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>48600</v>
+        <v>17400</v>
       </c>
       <c r="B15">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>1222</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10601</v>
+        <v>20600</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>954</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6750</v>
+        <v>18100</v>
       </c>
       <c r="B17">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="C17">
-        <v>720</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10800</v>
+        <v>17100</v>
       </c>
       <c r="B18">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="C18">
-        <v>936</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5700</v>
+        <v>20300</v>
       </c>
       <c r="B19">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>807</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4400</v>
+        <v>16400</v>
       </c>
       <c r="B20">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>5800</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6300</v>
+        <v>16700</v>
       </c>
       <c r="B21">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="C21">
-        <v>874</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10199</v>
+        <v>16500</v>
       </c>
       <c r="B22">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="C22">
-        <v>1942</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>28100</v>
+        <v>17900</v>
       </c>
       <c r="B23">
-        <v>5099</v>
+        <v>107</v>
       </c>
       <c r="C23">
-        <v>1040</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11900</v>
+        <v>18100</v>
       </c>
       <c r="B24">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C24">
-        <v>927</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6450</v>
+        <v>16100</v>
       </c>
       <c r="B25">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>830</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7400</v>
+        <v>16500</v>
       </c>
       <c r="B26">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C26">
-        <v>1222</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6100</v>
+        <v>17400</v>
       </c>
       <c r="B27">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="C27">
-        <v>1019</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6250</v>
+        <v>16500</v>
       </c>
       <c r="B28">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="C28">
-        <v>945</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6600</v>
+        <v>20200</v>
       </c>
       <c r="B29">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C29">
-        <v>12799</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6400</v>
+        <v>22300</v>
       </c>
       <c r="B30">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6400</v>
+        <v>17600</v>
       </c>
       <c r="B31">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="C31">
-        <v>693</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5800</v>
+        <v>17800</v>
       </c>
       <c r="B32">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C32">
-        <v>740</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10101</v>
+        <v>18300</v>
       </c>
       <c r="B33">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C33">
-        <v>849</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7300</v>
+        <v>16600</v>
       </c>
       <c r="B34">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="C34">
-        <v>784</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7150</v>
+        <v>16600</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>749</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13500</v>
+        <v>35800</v>
       </c>
       <c r="B36">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C36">
-        <v>908</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10200</v>
+        <v>17800</v>
       </c>
       <c r="B37">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="C37">
-        <v>858</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10200</v>
+        <v>23900</v>
       </c>
       <c r="B38">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C38">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6600</v>
+        <v>22700</v>
       </c>
       <c r="B39">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C39">
-        <v>680</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7900</v>
+        <v>17600</v>
       </c>
       <c r="B40">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C40">
-        <v>742</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5900</v>
+        <v>16900</v>
       </c>
       <c r="B41">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="C41">
-        <v>700</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6300</v>
+        <v>16800</v>
       </c>
       <c r="B42">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C42">
-        <v>700</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6450</v>
+        <v>34600</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C43">
-        <v>706</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10299</v>
+        <v>13600</v>
       </c>
       <c r="B44">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C44">
-        <v>908</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5899</v>
+        <v>11900</v>
       </c>
       <c r="B45">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>883</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>34501</v>
+        <v>11300</v>
       </c>
       <c r="B46">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="C46">
-        <v>858</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6750</v>
+        <v>10900</v>
       </c>
       <c r="B47">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="C47">
-        <v>784</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6149</v>
+        <v>10600</v>
       </c>
       <c r="B48">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C48">
-        <v>883</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5800</v>
+        <v>11000</v>
       </c>
       <c r="B49">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C49">
-        <v>668</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5900</v>
+        <v>11000</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50">
-        <v>679</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5749</v>
+        <v>11100</v>
       </c>
       <c r="B51">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C51">
-        <v>668</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5900</v>
+        <v>26400</v>
       </c>
       <c r="B52">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C52">
-        <v>1125</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6700</v>
+        <v>7900</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53">
-        <v>1166</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="B54">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54">
-        <v>706</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6950</v>
+        <v>10700</v>
       </c>
       <c r="B55">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>866</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6600</v>
+        <v>11700</v>
       </c>
       <c r="B56">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C56">
-        <v>792</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6550</v>
+        <v>11600</v>
       </c>
       <c r="B57">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C57">
-        <v>757</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6700</v>
+        <v>10700</v>
       </c>
       <c r="B58">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C58">
-        <v>728</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6150</v>
+        <v>11600</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>537</v>
       </c>
       <c r="C59">
-        <v>700</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>11201</v>
+        <v>10800</v>
       </c>
       <c r="B60">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>589</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>11599</v>
+        <v>7800</v>
       </c>
       <c r="B61">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C61">
-        <v>536</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4033</v>
+        <v>7850</v>
       </c>
       <c r="B62">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>2899</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="B63">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10999</v>
+        <v>11100</v>
       </c>
       <c r="B64">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>807</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8250</v>
+        <v>10700</v>
       </c>
       <c r="B65">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C65">
-        <v>771</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10199</v>
+        <v>18400</v>
       </c>
       <c r="B66">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>972</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7250</v>
+        <v>11300</v>
       </c>
       <c r="B67">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C67">
-        <v>757</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6550</v>
+        <v>13600</v>
       </c>
       <c r="B68">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>1628</v>
+        <v>747</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6550</v>
+        <v>14800</v>
       </c>
       <c r="B69">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C69">
-        <v>686</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="B70">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C70">
-        <v>838</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7600</v>
+        <v>37400</v>
       </c>
       <c r="B71">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C71">
-        <v>693</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16100</v>
+        <v>11800</v>
       </c>
       <c r="B72">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C72">
-        <v>823</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11999</v>
+        <v>10700</v>
       </c>
       <c r="B73">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>706</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6050</v>
+        <v>11600</v>
       </c>
       <c r="B74">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>693</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6150</v>
+        <v>10900</v>
       </c>
       <c r="B75">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C75">
-        <v>662</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5850</v>
+        <v>7050</v>
       </c>
       <c r="B76">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C76">
-        <v>682</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="B77">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C77">
-        <v>680</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6649</v>
+        <v>6500</v>
       </c>
       <c r="B78">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>800</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11200</v>
+        <v>6150</v>
       </c>
       <c r="B79">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C79">
-        <v>784</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7650</v>
+        <v>6000</v>
       </c>
       <c r="B80">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C80">
-        <v>784</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6950</v>
+        <v>6150</v>
       </c>
       <c r="B81">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C81">
-        <v>1070</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6050</v>
+        <v>6000</v>
       </c>
       <c r="B82">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C82">
-        <v>1059</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7750</v>
+        <v>6150</v>
       </c>
       <c r="B83">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C83">
-        <v>891</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="B84">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>728</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>32100</v>
+        <v>6200</v>
       </c>
       <c r="B85">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>3399</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6550</v>
+        <v>5900</v>
       </c>
       <c r="B86">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>750</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="B87">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C87">
-        <v>2049</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6600</v>
+        <v>10900</v>
       </c>
       <c r="B88">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C88">
-        <v>757</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10199</v>
+        <v>12800</v>
       </c>
       <c r="B89">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>662</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5299</v>
+        <v>6600</v>
       </c>
       <c r="B90">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C90">
-        <v>536</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C91">
-        <v>927</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6099</v>
+        <v>6250</v>
       </c>
       <c r="B92">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C92">
-        <v>868</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6900</v>
+        <v>12200</v>
       </c>
       <c r="B93">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C93">
-        <v>792</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="B94">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C94">
-        <v>1030</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="B95">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C95">
-        <v>699</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6250</v>
+        <v>14600</v>
       </c>
       <c r="B96">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C96">
-        <v>764</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6850</v>
+        <v>12800</v>
       </c>
       <c r="B97">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C97">
-        <v>1030</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7950</v>
+        <v>11800</v>
       </c>
       <c r="B98">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C98">
-        <v>713</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6800</v>
+        <v>18100</v>
       </c>
       <c r="B99">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C99">
-        <v>792</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6150</v>
+        <v>7200</v>
       </c>
       <c r="B100">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C100">
-        <v>668</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5650</v>
+        <v>6100</v>
       </c>
       <c r="B101">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C101">
-        <v>784</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2781,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,76 +2797,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A1:A101)</f>
+        <v>14100</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>94</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>408.5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13100</v>
+        <v>46300</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C2">
-        <v>918</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8750</v>
+        <v>25500</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C3">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3933</v>
+        <v>14100</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>519</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4133</v>
+        <v>13200</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>1457</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4133</v>
+        <v>13600</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>456</v>
@@ -2885,626 +2874,626 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4199</v>
+        <v>14400</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>452</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4166</v>
+        <v>14100</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>486</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4066</v>
+        <v>13800</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>1036</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5249</v>
+        <v>14300</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>542</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3000</v>
+        <v>13600</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4166</v>
+        <v>13500</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>600</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3666</v>
+        <v>18200</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C13">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2925</v>
+        <v>34800</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5550</v>
+        <v>15300</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C15">
-        <v>346</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1542</v>
+        <v>17000</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>240</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5750</v>
+        <v>15200</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C17">
-        <v>456</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4400</v>
+        <v>14200</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4100</v>
+        <v>13300</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>495</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4166</v>
+        <v>14500</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C20">
-        <v>490</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3800</v>
+        <v>13100</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>743</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5166</v>
+        <v>13600</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C22">
-        <v>504</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5549</v>
+        <v>13200</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C23">
-        <v>495</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4233</v>
+        <v>13100</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>673</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4400</v>
+        <v>18100</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3833</v>
+        <v>13400</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C26">
-        <v>515</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4233</v>
+        <v>13300</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C27">
-        <v>807</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3766</v>
+        <v>13200</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>443</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3933</v>
+        <v>15000</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C29">
-        <v>643</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3666</v>
+        <v>16700</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6250</v>
+        <v>13700</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C31">
-        <v>933</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5899</v>
+        <v>13300</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>515</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4300</v>
+        <v>14100</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C33">
-        <v>463</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5333</v>
+        <v>16600</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>495</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6000</v>
+        <v>16900</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C35">
-        <v>459</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4000</v>
+        <v>14400</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C36">
-        <v>600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4200</v>
+        <v>12900</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C37">
-        <v>433</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2824</v>
+        <v>13600</v>
       </c>
       <c r="B38">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C38">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2975</v>
+        <v>13100</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C39">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2775</v>
+        <v>12700</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C40">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>17499</v>
+        <v>12600</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C41">
-        <v>355</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3666</v>
+        <v>13000</v>
       </c>
       <c r="B42">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C42">
-        <v>447</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2875</v>
+        <v>13400</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C43">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2874</v>
+        <v>17500</v>
       </c>
       <c r="B44">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C44">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5600</v>
+        <v>13200</v>
       </c>
       <c r="B45">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C45">
-        <v>425</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4333</v>
+        <v>12400</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C46">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>30600</v>
+        <v>23300</v>
       </c>
       <c r="B47">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1733</v>
+        <v>14200</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C48">
-        <v>362</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2079</v>
+        <v>15900</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C49">
-        <v>381</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1500</v>
+        <v>14100</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C50">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1849</v>
+        <v>16700</v>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C51">
-        <v>392</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3833</v>
+        <v>16300</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C52">
-        <v>643</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6100</v>
+        <v>16500</v>
       </c>
       <c r="B53">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C53">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3600</v>
+        <v>14900</v>
       </c>
       <c r="B54">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C54">
-        <v>694</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3466</v>
+        <v>36400</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2099</v>
+        <v>13700</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C56">
-        <v>364</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1800</v>
+        <v>15500</v>
       </c>
       <c r="B57">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C57">
-        <v>468</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2100</v>
+        <v>15100</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C58">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1750</v>
+        <v>13300</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1716</v>
+        <v>15600</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C60">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1800</v>
+        <v>19500</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C61">
-        <v>495</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1528</v>
+        <v>13400</v>
       </c>
       <c r="B62">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C62">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1749</v>
+        <v>15000</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>412</v>
@@ -3512,420 +3501,420 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1750</v>
+        <v>18300</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="C64">
-        <v>5400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>48900</v>
+        <v>15500</v>
       </c>
       <c r="B65">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="C65">
-        <v>2833</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5650</v>
+        <v>15300</v>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>536</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3567</v>
+        <v>22500</v>
       </c>
       <c r="B67">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C67">
-        <v>472</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3550</v>
+        <v>15200</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C68">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5650</v>
+        <v>13900</v>
       </c>
       <c r="B69">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C69">
-        <v>536</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1800</v>
+        <v>16200</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C70">
-        <v>408</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4000</v>
+        <v>15300</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C71">
-        <v>991</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1500</v>
+        <v>13700</v>
       </c>
       <c r="B72">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C72">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1733</v>
+        <v>27200</v>
       </c>
       <c r="B73">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C73">
-        <v>375</v>
+        <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1800</v>
+        <v>14000</v>
       </c>
       <c r="B74">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C74">
-        <v>362</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2650</v>
+        <v>13300</v>
       </c>
       <c r="B75">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C75">
-        <v>629</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1850</v>
+        <v>46700</v>
       </c>
       <c r="B76">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C76">
-        <v>643</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2650</v>
+        <v>23200</v>
       </c>
       <c r="B77">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C77">
-        <v>388</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1850</v>
+        <v>17800</v>
       </c>
       <c r="B78">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C78">
-        <v>364</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3075</v>
+        <v>17100</v>
       </c>
       <c r="B79">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C79">
-        <v>481</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1312</v>
+        <v>12800</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C80">
-        <v>412</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2200</v>
+        <v>12000</v>
       </c>
       <c r="B81">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C81">
-        <v>429</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2080</v>
+        <v>11300</v>
       </c>
       <c r="B82">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C82">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1528</v>
+        <v>19300</v>
       </c>
       <c r="B83">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C83">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2750</v>
+        <v>11200</v>
       </c>
       <c r="B84">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C84">
-        <v>437</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1585</v>
+        <v>13100</v>
       </c>
       <c r="B85">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C85">
-        <v>536</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2100</v>
+        <v>11200</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C86">
-        <v>463</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1557</v>
+        <v>11200</v>
       </c>
       <c r="B87">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>433</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2625</v>
+        <v>10600</v>
       </c>
       <c r="B88">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C88">
-        <v>505</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1262</v>
+        <v>11200</v>
       </c>
       <c r="B89">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C89">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1783</v>
+        <v>11100</v>
       </c>
       <c r="B90">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C90">
-        <v>452</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1766</v>
+        <v>11300</v>
       </c>
       <c r="B91">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C91">
-        <v>408</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>72350</v>
+        <v>11400</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>62801</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5449</v>
+        <v>20700</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C93">
-        <v>4333</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2300</v>
+        <v>13700</v>
       </c>
       <c r="B94">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C94">
-        <v>3433</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5749</v>
+        <v>13000</v>
       </c>
       <c r="B95">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C95">
-        <v>1800</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1557</v>
+        <v>13800</v>
       </c>
       <c r="B96">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C96">
-        <v>3433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2320</v>
+        <v>14200</v>
       </c>
       <c r="B97">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C97">
-        <v>3466</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2219</v>
+        <v>13900</v>
       </c>
       <c r="B98">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C98">
-        <v>3367</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2100</v>
+        <v>37700</v>
       </c>
       <c r="B99">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C99">
-        <v>3149</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2159</v>
+        <v>15600</v>
       </c>
       <c r="B100">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C100">
-        <v>3499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2299</v>
+        <v>15300</v>
       </c>
       <c r="B101">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C101">
-        <v>3433</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3930,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A101" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,1124 +3946,1124 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A2:A101)</f>
+        <v>7300</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>117.5</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>221</v>
+        <v>18200</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>2080</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>237</v>
+        <v>14000</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="C3">
-        <v>784</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>490</v>
+        <v>10400</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C4">
-        <v>792</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>340</v>
+        <v>39600</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C5">
-        <v>1287</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>572</v>
+        <v>12400</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>13100</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>325</v>
+        <v>7600</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>407</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>381</v>
+        <v>6350</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>1036</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>396</v>
+        <v>6100</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>441</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>381</v>
+        <v>5850</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C10">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>381</v>
+        <v>5900</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>294</v>
+        <v>6300</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C12">
-        <v>668</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>332</v>
+        <v>7000</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>5600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>396</v>
+        <v>5750</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>399</v>
+        <v>5900</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>577</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>385</v>
+        <v>6750</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>408</v>
+        <v>5750</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C17">
-        <v>404</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>396</v>
+        <v>6550</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>412</v>
+        <v>5800</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>403</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>433</v>
+        <v>5900</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>433</v>
+        <v>5600</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C21">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>420</v>
+        <v>5550</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C22">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>429</v>
+        <v>5450</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C23">
-        <v>1520</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>447</v>
+        <v>5500</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C24">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18100</v>
+        <v>5550</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>429</v>
+        <v>7200</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>18100</v>
+        <v>5700</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>408</v>
+        <v>6000</v>
       </c>
       <c r="B28">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C28">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>600</v>
+        <v>5800</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>2150</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>686</v>
+        <v>5600</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>485</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>918</v>
+        <v>11800</v>
       </c>
       <c r="B31">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C31">
-        <v>439</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>807</v>
+        <v>10600</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C32">
-        <v>420</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>954</v>
+        <v>10200</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C33">
-        <v>447</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2780</v>
+        <v>7150</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C34">
-        <v>396</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>631</v>
+        <v>11300</v>
       </c>
       <c r="B35">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C35">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>866</v>
+        <v>13400</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C36">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>735</v>
+        <v>9300</v>
       </c>
       <c r="B37">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C37">
-        <v>408</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>927</v>
+        <v>7300</v>
       </c>
       <c r="B38">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C38">
-        <v>472</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>850</v>
+        <v>10200</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C39">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>883</v>
+        <v>7200</v>
       </c>
       <c r="B40">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C40">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1674</v>
+        <v>11100</v>
       </c>
       <c r="B41">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C41">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>656</v>
+        <v>12200</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>728</v>
+        <v>11600</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C43">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7450</v>
+        <v>6850</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C44">
-        <v>355</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>721</v>
+        <v>10800</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C45">
-        <v>367</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>680</v>
+        <v>10900</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C46">
-        <v>515</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1399</v>
+        <v>10600</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C47">
-        <v>336</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>583</v>
+        <v>10800</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C48">
-        <v>318</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>510</v>
+        <v>11000</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C49">
-        <v>315</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>18099</v>
+        <v>7000</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C50">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>594</v>
+        <v>6300</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>429</v>
+        <v>6400</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C52">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>437</v>
+        <v>6750</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C53">
-        <v>437</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>392</v>
+        <v>6800</v>
       </c>
       <c r="B54">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C54">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>433</v>
+        <v>7100</v>
       </c>
       <c r="B55">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C55">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>425</v>
+        <v>6300</v>
       </c>
       <c r="B56">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C56">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>548</v>
+        <v>6450</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>385</v>
+        <v>7350</v>
       </c>
       <c r="B58">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C58">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>355</v>
+        <v>6800</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C59">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>355</v>
+        <v>6450</v>
       </c>
       <c r="B60">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>351</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>443</v>
+        <v>6350</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C61">
-        <v>400</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>403</v>
+        <v>6450</v>
       </c>
       <c r="B62">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C62">
-        <v>339</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>348</v>
+        <v>13000</v>
       </c>
       <c r="B63">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C63">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>346</v>
+        <v>6350</v>
       </c>
       <c r="B64">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C64">
-        <v>300</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>346</v>
+        <v>40100</v>
       </c>
       <c r="B65">
-        <v>46</v>
+        <v>515</v>
       </c>
       <c r="C65">
-        <v>433</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>388</v>
+        <v>13100</v>
       </c>
       <c r="B66">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C66">
-        <v>400</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>349</v>
+        <v>13600</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="C67">
-        <v>329</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>374</v>
+        <v>11800</v>
       </c>
       <c r="B68">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C68">
-        <v>770</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>377</v>
+        <v>11000</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C69">
-        <v>321</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>348</v>
+        <v>12000</v>
       </c>
       <c r="B70">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C70">
-        <v>343</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>377</v>
+        <v>12700</v>
       </c>
       <c r="B71">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C71">
-        <v>530</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>11000</v>
+      </c>
+      <c r="B72">
+        <v>179</v>
+      </c>
+      <c r="C72">
         <v>392</v>
-      </c>
-      <c r="B72">
-        <v>45</v>
-      </c>
-      <c r="C72">
-        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>377</v>
+        <v>13400</v>
       </c>
       <c r="B73">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C73">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>381</v>
+        <v>10950</v>
       </c>
       <c r="B74">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C74">
-        <v>340</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>371</v>
+        <v>11800</v>
       </c>
       <c r="B75">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C75">
-        <v>339</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>381</v>
+        <v>18800</v>
       </c>
       <c r="B76">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="C76">
-        <v>531</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>381</v>
+        <v>10700</v>
       </c>
       <c r="B77">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C77">
-        <v>300</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>312</v>
+        <v>11400</v>
       </c>
       <c r="B78">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C78">
-        <v>309</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>416</v>
+        <v>10400</v>
       </c>
       <c r="B79">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C79">
-        <v>305</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>371</v>
+        <v>16400</v>
       </c>
       <c r="B80">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C80">
-        <v>338</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>472</v>
+        <v>6800</v>
       </c>
       <c r="B81">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C81">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>371</v>
+        <v>5350</v>
       </c>
       <c r="B82">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C82">
-        <v>332</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>392</v>
+        <v>10900</v>
       </c>
       <c r="B83">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C83">
-        <v>346</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>728</v>
+        <v>7300</v>
       </c>
       <c r="B84">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C84">
-        <v>348</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>158</v>
+        <v>10200</v>
       </c>
       <c r="B85">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C85">
-        <v>362</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>151</v>
+        <v>19200</v>
       </c>
       <c r="B86">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C86">
-        <v>1700</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>177</v>
+        <v>11400</v>
       </c>
       <c r="B87">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C87">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>157</v>
+        <v>10500</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C88">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>150</v>
+        <v>18000</v>
       </c>
       <c r="B89">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C89">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>150</v>
+        <v>13600</v>
       </c>
       <c r="B90">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C90">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>147</v>
+        <v>7100</v>
       </c>
       <c r="B91">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C91">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>142</v>
+        <v>7750</v>
       </c>
       <c r="B92">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C92">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>175</v>
+        <v>5700</v>
       </c>
       <c r="B93">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C93">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>5900</v>
+      </c>
+      <c r="B94">
         <v>145</v>
       </c>
-      <c r="B94">
-        <v>49</v>
-      </c>
       <c r="C94">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>136</v>
+        <v>14600</v>
       </c>
       <c r="B95">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C95">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>137</v>
+        <v>21200</v>
       </c>
       <c r="B96">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C96">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>164</v>
+        <v>6250</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C97">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>138</v>
+        <v>4400</v>
       </c>
       <c r="B98">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C98">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>137</v>
+        <v>4166</v>
       </c>
       <c r="B99">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C99">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>135</v>
+        <v>7150</v>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C100">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>237</v>
+        <v>4266</v>
       </c>
       <c r="B101">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
